--- a/raw_data/XLM-USD_4h_process.xlsx
+++ b/raw_data/XLM-USD_4h_process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="196">
   <si>
     <t>Open</t>
   </si>
@@ -58,129 +58,6 @@
     <t>sell_rsi_9</t>
   </si>
   <si>
-    <t>2023-12-27 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-27 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 09:00:00-03:00</t>
-  </si>
-  <si>
     <t>2024-01-03 13:00:00-03:00</t>
   </si>
   <si>
@@ -599,6 +476,129 @@
   </si>
   <si>
     <t>2024-01-26 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-26 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 13:00:00-03:00</t>
   </si>
   <si>
     <t>yes</t>
@@ -1014,19 +1014,19 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>0.1323918104171753</v>
+        <v>0.1219946816563606</v>
       </c>
       <c r="C2">
-        <v>0.1326158046722412</v>
+        <v>0.1225683838129043</v>
       </c>
       <c r="D2">
-        <v>0.130698412656784</v>
+        <v>0.1202694401144981</v>
       </c>
       <c r="E2">
-        <v>0.1308571547269821</v>
+        <v>0.1208743974566459</v>
       </c>
       <c r="F2">
-        <v>1714152</v>
+        <v>2889616</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1034,19 +1034,19 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>0.1308553814888</v>
+        <v>0.120883010327816</v>
       </c>
       <c r="C3">
-        <v>0.1332593709230423</v>
+        <v>0.1218986138701438</v>
       </c>
       <c r="D3">
-        <v>0.1307698935270309</v>
+        <v>0.120062842965126</v>
       </c>
       <c r="E3">
-        <v>0.1330703347921371</v>
+        <v>0.120549701154232</v>
       </c>
       <c r="F3">
-        <v>7077600</v>
+        <v>574080</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1054,19 +1054,19 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>0.1330792009830474</v>
+        <v>0.1205497458577156</v>
       </c>
       <c r="C4">
-        <v>0.1341332644224167</v>
+        <v>0.1214178055524826</v>
       </c>
       <c r="D4">
-        <v>0.1316760033369064</v>
+        <v>0.1198507845401763</v>
       </c>
       <c r="E4">
-        <v>0.1331788748502731</v>
+        <v>0.1211074590682983</v>
       </c>
       <c r="F4">
-        <v>13131176</v>
+        <v>3597696</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1074,19 +1074,19 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>0.1331821233034134</v>
+        <v>0.1211089342832565</v>
       </c>
       <c r="C5">
-        <v>0.1356084495782852</v>
+        <v>0.1220298409461975</v>
       </c>
       <c r="D5">
-        <v>0.1328014284372329</v>
+        <v>0.1209973245859146</v>
       </c>
       <c r="E5">
-        <v>0.1350619941949844</v>
+        <v>0.1210005804896354</v>
       </c>
       <c r="F5">
-        <v>3832744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1094,19 +1094,19 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>0.1350465267896652</v>
+        <v>0.1209426894783973</v>
       </c>
       <c r="C6">
-        <v>0.1354392915964126</v>
+        <v>0.1213466450572013</v>
       </c>
       <c r="D6">
-        <v>0.1298386603593826</v>
+        <v>0.1197919249534607</v>
       </c>
       <c r="E6">
-        <v>0.1324668526649475</v>
+        <v>0.1201046630740165</v>
       </c>
       <c r="F6">
-        <v>22060248</v>
+        <v>4261920</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1114,19 +1114,19 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>0.1324276477098465</v>
+        <v>0.1201076805591583</v>
       </c>
       <c r="C7">
-        <v>0.133485347032547</v>
+        <v>0.1220113933086395</v>
       </c>
       <c r="D7">
-        <v>0.1314684599637985</v>
+        <v>0.1200690120458602</v>
       </c>
       <c r="E7">
-        <v>0.1319927871227264</v>
+        <v>0.1214603185653686</v>
       </c>
       <c r="F7">
-        <v>6026784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1134,19 +1134,19 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>0.1319888979196548</v>
+        <v>0.1214524433016777</v>
       </c>
       <c r="C8">
-        <v>0.1329298168420791</v>
+        <v>0.1215837746858596</v>
       </c>
       <c r="D8">
-        <v>0.1306444406509399</v>
+        <v>0.1205390617251396</v>
       </c>
       <c r="E8">
-        <v>0.1323552429676056</v>
+        <v>0.1209889575839042</v>
       </c>
       <c r="F8">
-        <v>1020560</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1154,19 +1154,19 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>0.132351204752922</v>
+        <v>0.1209907904267311</v>
       </c>
       <c r="C9">
-        <v>0.1325572580099105</v>
+        <v>0.1221513003110885</v>
       </c>
       <c r="D9">
-        <v>0.1283333003520965</v>
+        <v>0.1209907904267311</v>
       </c>
       <c r="E9">
-        <v>0.13027323782444</v>
+        <v>0.1216462776064872</v>
       </c>
       <c r="F9">
-        <v>2566160</v>
+        <v>5158992</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1174,19 +1174,19 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>0.1302710473537445</v>
+        <v>0.1216407418251037</v>
       </c>
       <c r="C10">
-        <v>0.1311442106962204</v>
+        <v>0.1219271197915077</v>
       </c>
       <c r="D10">
-        <v>0.1292220503091812</v>
+        <v>0.1190588548779487</v>
       </c>
       <c r="E10">
-        <v>0.1303283721208572</v>
+        <v>0.119250439107418</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>13423096</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1194,22 +1194,22 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>0.1303191184997558</v>
+        <v>0.1192508041858673</v>
       </c>
       <c r="C11">
-        <v>0.13153176009655</v>
+        <v>0.11930613219738</v>
       </c>
       <c r="D11">
-        <v>0.1301638633012771</v>
+        <v>0.1182062700390815</v>
       </c>
       <c r="E11">
-        <v>0.1312922835350036</v>
+        <v>0.1190998628735542</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>4047384</v>
       </c>
       <c r="L11">
-        <v>47.8838163576368</v>
+        <v>32.87597432114354</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1217,22 +1217,25 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>0.1312893480062484</v>
+        <v>0.119097426533699</v>
       </c>
       <c r="C12">
-        <v>0.1317767053842544</v>
+        <v>0.1200045347213745</v>
       </c>
       <c r="D12">
-        <v>0.1292963325977325</v>
+        <v>0.1176652759313583</v>
       </c>
       <c r="E12">
-        <v>0.1293940991163253</v>
+        <v>0.1176652759313583</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>3598848</v>
       </c>
       <c r="L12">
-        <v>36.0256990784501</v>
+        <v>24.72793844206846</v>
+      </c>
+      <c r="N12" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1240,22 +1243,25 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>0.1293969750404358</v>
+        <v>0.1176545843482017</v>
       </c>
       <c r="C13">
-        <v>0.129628300666809</v>
+        <v>0.1183334067463874</v>
       </c>
       <c r="D13">
-        <v>0.1275267750024795</v>
+        <v>0.1164221316576004</v>
       </c>
       <c r="E13">
-        <v>0.1291615962982177</v>
+        <v>0.1170898675918579</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>4407920</v>
       </c>
       <c r="L13">
-        <v>34.83689903014093</v>
+        <v>22.24066326465306</v>
+      </c>
+      <c r="N13" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1263,22 +1269,25 @@
         <v>26</v>
       </c>
       <c r="B14">
-        <v>0.1291591376066208</v>
+        <v>0.1171879842877388</v>
       </c>
       <c r="C14">
-        <v>0.1296199560165405</v>
+        <v>0.1174637079238891</v>
       </c>
       <c r="D14">
-        <v>0.1274670958518982</v>
+        <v>0.1151824593544006</v>
       </c>
       <c r="E14">
-        <v>0.1296199560165405</v>
+        <v>0.1169215440750122</v>
       </c>
       <c r="F14">
-        <v>1466440</v>
+        <v>5672376</v>
       </c>
       <c r="L14">
-        <v>39.28069331502807</v>
+        <v>21.52803747933982</v>
+      </c>
+      <c r="N14" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1286,22 +1295,22 @@
         <v>27</v>
       </c>
       <c r="B15">
-        <v>0.129626378417015</v>
+        <v>0.1169161647558212</v>
       </c>
       <c r="C15">
-        <v>0.1304483115673065</v>
+        <v>0.1191164255142211</v>
       </c>
       <c r="D15">
-        <v>0.1293094605207443</v>
+        <v>0.1169089749455452</v>
       </c>
       <c r="E15">
-        <v>0.1298238039016723</v>
+        <v>0.1191164255142211</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>886360</v>
       </c>
       <c r="L15">
-        <v>41.28406027725767</v>
+        <v>46.61907755772496</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1309,5095 +1318,5083 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>0.1298238635063171</v>
+        <v>0.1191360875964164</v>
       </c>
       <c r="C16">
-        <v>0.132033109664917</v>
+        <v>0.1196512356400489</v>
       </c>
       <c r="D16">
-        <v>0.129822090268135</v>
+        <v>0.1188734397292137</v>
       </c>
       <c r="E16">
-        <v>0.1316926926374435</v>
+        <v>0.119011178612709</v>
       </c>
       <c r="F16">
-        <v>1331976</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>56.19198106377209</v>
+        <v>45.82859647261242</v>
       </c>
       <c r="M16">
-        <v>54.04603490826745</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>43.95983054048892</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B17">
-        <v>0.1316960453987121</v>
+        <v>0.1190113276243209</v>
       </c>
       <c r="C17">
-        <v>0.13396055996418</v>
+        <v>0.1195715963840484</v>
       </c>
       <c r="D17">
-        <v>0.1303249150514602</v>
+        <v>0.1162638291716575</v>
       </c>
       <c r="E17">
-        <v>0.1338678747415542</v>
+        <v>0.1173929050564765</v>
       </c>
       <c r="F17">
-        <v>9196408</v>
+        <v>6417960</v>
       </c>
       <c r="L17">
-        <v>67.12219331673339</v>
+        <v>35.4351936846201</v>
       </c>
       <c r="M17">
-        <v>63.21809265351013</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>35.78651817219758</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B18">
-        <v>0.1338523030281067</v>
+        <v>0.1173967719078064</v>
       </c>
       <c r="C18">
-        <v>0.1379701197147369</v>
+        <v>0.1184461936354637</v>
       </c>
       <c r="D18">
-        <v>0.1338523030281067</v>
+        <v>0.1172324642539024</v>
       </c>
       <c r="E18">
-        <v>0.1351331025362014</v>
+        <v>0.1183808669447898</v>
       </c>
       <c r="F18">
-        <v>31937784</v>
+        <v>53368</v>
       </c>
       <c r="L18">
-        <v>71.73668351596457</v>
+        <v>44.13659815824712</v>
       </c>
       <c r="M18">
-        <v>67.30573721622882</v>
-      </c>
-      <c r="O18" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>42.78099630107272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B19">
-        <v>0.1351174861192703</v>
+        <v>0.1183843538165092</v>
       </c>
       <c r="C19">
-        <v>0.1369514763355255</v>
+        <v>0.1204555332660675</v>
       </c>
       <c r="D19">
-        <v>0.1344095915555954</v>
+        <v>0.1183843538165092</v>
       </c>
       <c r="E19">
-        <v>0.1344095915555954</v>
+        <v>0.1198569536209106</v>
       </c>
       <c r="F19">
-        <v>6545280</v>
+        <v>112040</v>
       </c>
       <c r="L19">
-        <v>65.79583826414459</v>
+        <v>54.45395334510917</v>
       </c>
       <c r="M19">
-        <v>62.99449369362043</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>51.3137928696335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B20">
-        <v>0.1344179511070251</v>
+        <v>0.1198561787605285</v>
       </c>
       <c r="C20">
-        <v>0.1344932466745376</v>
+        <v>0.1204410642385482</v>
       </c>
       <c r="D20">
-        <v>0.1321210265159607</v>
+        <v>0.1194088384509086</v>
       </c>
       <c r="E20">
-        <v>0.1326306313276291</v>
+        <v>0.1197129413485527</v>
       </c>
       <c r="F20">
-        <v>1950776</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>53.53274358280916</v>
+        <v>53.37203391126567</v>
       </c>
       <c r="M20">
-        <v>53.85931422162825</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>50.52219316854062</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B21">
-        <v>0.1325949281454086</v>
+        <v>0.1197125166654586</v>
       </c>
       <c r="C21">
-        <v>0.1332684755325317</v>
+        <v>0.1201253458857536</v>
       </c>
       <c r="D21">
-        <v>0.1306630671024322</v>
+        <v>0.1191001608967781</v>
       </c>
       <c r="E21">
-        <v>0.1309065371751785</v>
+        <v>0.1200516074895858</v>
       </c>
       <c r="F21">
-        <v>3270192</v>
+        <v>967744</v>
       </c>
       <c r="H21">
-        <v>0.1318758510053157</v>
+        <v>0.1195641111582517</v>
       </c>
       <c r="L21">
-        <v>44.49153810455579</v>
+        <v>55.70059786565241</v>
       </c>
       <c r="M21">
-        <v>46.77910875384609</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>52.38254317794543</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B22">
-        <v>0.1309124529361724</v>
+        <v>0.1201426461338996</v>
       </c>
       <c r="C22">
-        <v>0.1323381215333938</v>
+        <v>0.1204257681965828</v>
       </c>
       <c r="D22">
-        <v>0.1308400779962539</v>
+        <v>0.1188003197312355</v>
       </c>
       <c r="E22">
-        <v>0.1320040225982666</v>
+        <v>0.1193024143576622</v>
       </c>
       <c r="F22">
-        <v>596336</v>
+        <v>941424</v>
       </c>
       <c r="G22">
-        <v>0.1318819544145039</v>
+        <v>0.1195516494058427</v>
       </c>
       <c r="H22">
-        <v>0.13193319439888</v>
+        <v>0.1194855120033025</v>
       </c>
       <c r="L22">
-        <v>50.48076872247129</v>
+        <v>49.54316132806846</v>
       </c>
       <c r="M22">
-        <v>51.17874197776357</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>48.07608707386336</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B23">
-        <v>0.1319995373487472</v>
+        <v>0.1193015649914741</v>
       </c>
       <c r="C23">
-        <v>0.1320551633834839</v>
+        <v>0.1204562708735466</v>
       </c>
       <c r="D23">
-        <v>0.1307874768972396</v>
+        <v>0.1193015649914741</v>
       </c>
       <c r="E23">
-        <v>0.1310592591762542</v>
+        <v>0.1201502531766891</v>
       </c>
       <c r="F23">
-        <v>3224024</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0.1318071639382994</v>
+        <v>0.1196060679304651</v>
       </c>
       <c r="H23">
-        <v>0.1318326406180858</v>
+        <v>0.1194655396044254</v>
       </c>
       <c r="L23">
-        <v>45.70490938357243</v>
+        <v>55.76825879854492</v>
       </c>
       <c r="M23">
-        <v>47.53570746935893</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>52.80472597152539</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B24">
-        <v>0.1310536414384842</v>
+        <v>0.1201596781611442</v>
       </c>
       <c r="C24">
-        <v>0.1315101981163025</v>
+        <v>0.1204878464341163</v>
       </c>
       <c r="D24">
-        <v>0.1304476261138916</v>
+        <v>0.1184227690100669</v>
       </c>
       <c r="E24">
-        <v>0.1304994374513626</v>
+        <v>0.1186936721205711</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>760072</v>
       </c>
       <c r="G24">
-        <v>0.1316882797122142</v>
+        <v>0.1195231228568384</v>
       </c>
       <c r="H24">
-        <v>0.1316986687481403</v>
+        <v>0.119344850257039</v>
       </c>
       <c r="L24">
-        <v>42.9934267397264</v>
+        <v>45.03063721802118</v>
       </c>
       <c r="M24">
-        <v>45.4702676283822</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>45.19055752672619</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B25">
-        <v>0.130489781498909</v>
+        <v>0.1186928078532219</v>
       </c>
       <c r="C25">
-        <v>0.131017729640007</v>
+        <v>0.1192123740911483</v>
       </c>
       <c r="D25">
-        <v>0.1294573247432708</v>
+        <v>0.1181725338101387</v>
       </c>
       <c r="E25">
-        <v>0.1296732723712921</v>
+        <v>0.1184548065066337</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>705800</v>
       </c>
       <c r="G25">
-        <v>0.1315050972266758</v>
+        <v>0.1194260031886379</v>
       </c>
       <c r="H25">
-        <v>0.1314292326569557</v>
+        <v>0.1192175615578889</v>
       </c>
       <c r="L25">
-        <v>39.13848679931169</v>
+        <v>43.48594684447375</v>
       </c>
       <c r="M25">
-        <v>42.53314642072731</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+        <v>44.06833245944618</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B26">
-        <v>0.129678189754486</v>
+        <v>0.1184543669223785</v>
       </c>
       <c r="C26">
-        <v>0.1301292926073074</v>
+        <v>0.1184678673744201</v>
       </c>
       <c r="D26">
-        <v>0.1280419379472732</v>
+        <v>0.1170453652739524</v>
       </c>
       <c r="E26">
-        <v>0.1289578527212143</v>
+        <v>0.1180217862129211</v>
       </c>
       <c r="F26">
-        <v>405112</v>
+        <v>834368</v>
       </c>
       <c r="G26">
-        <v>0.1312735295443611</v>
+        <v>0.1192983470999364</v>
       </c>
       <c r="H26">
-        <v>0.131253782659769</v>
+        <v>0.1191134177148342</v>
       </c>
       <c r="L26">
-        <v>35.99438323079128</v>
+        <v>40.64264816885934</v>
       </c>
       <c r="M26">
-        <v>40.11658925070111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+        <v>42.03064479154777</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B27">
-        <v>0.1289747506380081</v>
+        <v>0.1180289164185524</v>
       </c>
       <c r="C27">
-        <v>0.1298073977231979</v>
+        <v>0.1180289164185524</v>
       </c>
       <c r="D27">
-        <v>0.1282186210155487</v>
+        <v>0.1149104461073875</v>
       </c>
       <c r="E27">
-        <v>0.1283684074878692</v>
+        <v>0.1152328550815582</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>5715224</v>
       </c>
       <c r="G27">
-        <v>0.1310094275392255</v>
+        <v>0.1189287569164475</v>
       </c>
       <c r="H27">
-        <v>0.1310725636780262</v>
+        <v>0.1188020445406437</v>
       </c>
       <c r="L27">
-        <v>33.49994889813655</v>
+        <v>27.57757821486948</v>
       </c>
       <c r="M27">
-        <v>38.19127764330081</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+        <v>31.82405359534523</v>
+      </c>
+      <c r="N27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B28">
-        <v>0.128371849656105</v>
+        <v>0.1152339652180671</v>
       </c>
       <c r="C28">
-        <v>0.1284659206867218</v>
+        <v>0.1179273352026939</v>
       </c>
       <c r="D28">
-        <v>0.1274289637804031</v>
+        <v>0.1129695624113082</v>
       </c>
       <c r="E28">
-        <v>0.1284357756376266</v>
+        <v>0.1148354485630989</v>
       </c>
       <c r="F28">
-        <v>51344</v>
+        <v>34507800</v>
       </c>
       <c r="G28">
-        <v>0.1307754591845347</v>
+        <v>0.1185566379752339</v>
       </c>
       <c r="H28">
-        <v>0.1308765903115272</v>
+        <v>0.1184943690896034</v>
       </c>
       <c r="L28">
-        <v>34.0872629175656</v>
+        <v>26.22608779621245</v>
       </c>
       <c r="M28">
-        <v>38.55424266246602</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+        <v>30.68074758883169</v>
+      </c>
+      <c r="N28" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B29">
-        <v>0.1284498423337936</v>
+        <v>0.1148362383246421</v>
       </c>
       <c r="C29">
-        <v>0.1299186497926712</v>
+        <v>0.1159516051411628</v>
       </c>
       <c r="D29">
-        <v>0.1284498423337936</v>
+        <v>0.1147310957312583</v>
       </c>
       <c r="E29">
-        <v>0.1298993378877639</v>
+        <v>0.1154214292764663</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>4828080</v>
       </c>
       <c r="G29">
-        <v>0.1306958117939192</v>
+        <v>0.1182716190026187</v>
       </c>
       <c r="H29">
-        <v>0.1308578953146934</v>
+        <v>0.1181831266731023</v>
       </c>
       <c r="L29">
-        <v>45.78887973492564</v>
+        <v>31.77255928765766</v>
       </c>
       <c r="M29">
-        <v>45.97654474236087</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+        <v>34.42184650308621</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B30">
-        <v>0.1299818903207779</v>
+        <v>0.1154304593801498</v>
       </c>
       <c r="C30">
-        <v>0.1303810179233551</v>
+        <v>0.1169788092374801</v>
       </c>
       <c r="D30">
-        <v>0.1296001523733139</v>
+        <v>0.1150805950164794</v>
       </c>
       <c r="E30">
-        <v>0.1303084045648574</v>
+        <v>0.1168083772063255</v>
       </c>
       <c r="F30">
-        <v>230220</v>
+        <v>7570544</v>
       </c>
       <c r="G30">
-        <v>0.1306605929549136</v>
+        <v>0.1181385970211375</v>
       </c>
       <c r="H30">
-        <v>0.1308568969368934</v>
+        <v>0.1180610235780477</v>
       </c>
       <c r="L30">
-        <v>48.65509813992254</v>
+        <v>43.15282090984271</v>
       </c>
       <c r="M30">
-        <v>47.87188139932898</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+        <v>42.35215232864216</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B31">
-        <v>0.1303049474954605</v>
+        <v>0.1168149635195732</v>
       </c>
       <c r="C31">
-        <v>0.1310519129037857</v>
+        <v>0.1175970584154129</v>
       </c>
       <c r="D31">
-        <v>0.1293939352035522</v>
+        <v>0.1165890619158744</v>
       </c>
       <c r="E31">
-        <v>0.1310519129037857</v>
+        <v>0.1174652948975563</v>
       </c>
       <c r="F31">
-        <v>983576</v>
+        <v>4822040</v>
       </c>
       <c r="G31">
-        <v>0.1306961674957201</v>
+        <v>0.1180773877371756</v>
       </c>
       <c r="H31">
-        <v>0.1308448784053325</v>
+        <v>0.1179792951792478</v>
       </c>
       <c r="I31">
-        <v>0.1312591567635536</v>
+        <v>0.1188556186854839</v>
       </c>
       <c r="L31">
-        <v>53.66442862230991</v>
+        <v>47.79290662970963</v>
       </c>
       <c r="M31">
-        <v>51.22159750813019</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+        <v>45.70145523877283</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B32">
-        <v>0.1310503780841827</v>
+        <v>0.1174610257148742</v>
       </c>
       <c r="C32">
-        <v>0.132374107837677</v>
+        <v>0.1193446293473243</v>
       </c>
       <c r="D32">
-        <v>0.1308560967445373</v>
+        <v>0.1166585981845855</v>
       </c>
       <c r="E32">
-        <v>0.1319076418876648</v>
+        <v>0.1189716607332229</v>
       </c>
       <c r="F32">
-        <v>3318868</v>
+        <v>10285712</v>
       </c>
       <c r="G32">
-        <v>0.1308063015313514</v>
+        <v>0.1181586852822708</v>
       </c>
       <c r="H32">
-        <v>0.1309705555438995</v>
+        <v>0.118044614419341</v>
       </c>
       <c r="I32">
-        <v>0.131294173002243</v>
+        <v>0.1187921941280365</v>
       </c>
       <c r="L32">
-        <v>58.86123490143713</v>
+        <v>56.8738297675181</v>
       </c>
       <c r="M32">
-        <v>54.82005771461494</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+        <v>52.51443532081214</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B33">
-        <v>0.13192018866539</v>
+        <v>0.1189909055829048</v>
       </c>
       <c r="C33">
-        <v>0.1332685053348541</v>
+        <v>0.1200560256838798</v>
       </c>
       <c r="D33">
-        <v>0.1316664814949035</v>
+        <v>0.1183289065957069</v>
       </c>
       <c r="E33">
-        <v>0.133078932762146</v>
+        <v>0.1196112781763076</v>
       </c>
       <c r="F33">
-        <v>5263540</v>
+        <v>2828400</v>
       </c>
       <c r="G33">
-        <v>0.1310129043705145</v>
+        <v>0.1182907391817287</v>
       </c>
       <c r="H33">
-        <v>0.1311664223670959</v>
+        <v>0.1181706849485635</v>
       </c>
       <c r="I33">
-        <v>0.1312944596012433</v>
+        <v>0.1187609133621056</v>
       </c>
       <c r="L33">
-        <v>64.91974441530236</v>
+        <v>60.18224223998349</v>
       </c>
       <c r="M33">
-        <v>59.25121344343912</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+        <v>55.09108859413744</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B34">
-        <v>0.1330938786268234</v>
+        <v>0.1196228042244911</v>
       </c>
       <c r="C34">
-        <v>0.1332455426454544</v>
+        <v>0.1198096498847007</v>
       </c>
       <c r="D34">
-        <v>0.1310845166444778</v>
+        <v>0.1181053221225738</v>
       </c>
       <c r="E34">
-        <v>0.1310845166444778</v>
+        <v>0.1192338615655899</v>
       </c>
       <c r="F34">
-        <v>5939828</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>0.1310194145772385</v>
+        <v>0.1183764775802615</v>
       </c>
       <c r="H34">
-        <v>0.1312396503984928</v>
+        <v>0.1182863008230924</v>
       </c>
       <c r="I34">
-        <v>0.1312246476610501</v>
+        <v>0.1186984601120154</v>
       </c>
       <c r="L34">
-        <v>50.63509181119932</v>
+        <v>57.26596649900993</v>
       </c>
       <c r="M34">
-        <v>50.21933651909527</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+        <v>53.2548098463058</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B35">
-        <v>0.131074383854866</v>
+        <v>0.1192420199513435</v>
       </c>
       <c r="C35">
-        <v>0.1330246180295944</v>
+        <v>0.1201652735471725</v>
       </c>
       <c r="D35">
-        <v>0.1310102492570877</v>
+        <v>0.1189014539122581</v>
       </c>
       <c r="E35">
-        <v>0.132452979683876</v>
+        <v>0.1195296645164489</v>
       </c>
       <c r="F35">
-        <v>7882632</v>
+        <v>3078952</v>
       </c>
       <c r="G35">
-        <v>0.1311497386778419</v>
+        <v>0.1184813127562785</v>
       </c>
       <c r="H35">
-        <v>0.1313711091876029</v>
+        <v>0.1183069627732038</v>
       </c>
       <c r="I35">
-        <v>0.1311376805106798</v>
+        <v>0.1186494295795758</v>
       </c>
       <c r="L35">
-        <v>57.80232061673118</v>
+        <v>59.01701363388251</v>
       </c>
       <c r="M35">
-        <v>55.25886328334705</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+        <v>54.53392857808104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B36">
-        <v>0.1324353069067001</v>
+        <v>0.1195278838276863</v>
       </c>
       <c r="C36">
-        <v>0.1326235979795456</v>
+        <v>0.1195278838276863</v>
       </c>
       <c r="D36">
-        <v>0.129851296544075</v>
+        <v>0.1168742030858993</v>
       </c>
       <c r="E36">
-        <v>0.1305756717920303</v>
+        <v>0.1173724755644798</v>
       </c>
       <c r="F36">
-        <v>8601760</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>0.1310975507791317</v>
+        <v>0.1183805093752059</v>
       </c>
       <c r="H36">
-        <v>0.1313152581453323</v>
+        <v>0.1182250276207923</v>
       </c>
       <c r="I36">
-        <v>0.1310746411482493</v>
+        <v>0.1185583566625912</v>
       </c>
       <c r="L36">
-        <v>47.22133443330362</v>
+        <v>44.16870913782092</v>
       </c>
       <c r="M36">
-        <v>48.06956670315591</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+        <v>44.88744219387519</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B37">
-        <v>0.1305820047855377</v>
+        <v>0.1173857152462005</v>
       </c>
       <c r="C37">
-        <v>0.1306132823228836</v>
+        <v>0.1174811497330665</v>
       </c>
       <c r="D37">
-        <v>0.1293778419494629</v>
+        <v>0.1147323995828628</v>
       </c>
       <c r="E37">
-        <v>0.1295120269060135</v>
+        <v>0.115296833217144</v>
       </c>
       <c r="F37">
-        <v>2621824</v>
+        <v>3813760</v>
       </c>
       <c r="G37">
-        <v>0.1309534122452119</v>
+        <v>0.1181001751790185</v>
       </c>
       <c r="H37">
-        <v>0.1310974657535552</v>
+        <v>0.1181202240288257</v>
       </c>
       <c r="I37">
-        <v>0.1309919491410255</v>
+        <v>0.1183529071509838</v>
       </c>
       <c r="L37">
-        <v>42.28727633081095</v>
+        <v>34.71446231854328</v>
       </c>
       <c r="M37">
-        <v>44.53427937814003</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+        <v>37.93426816691731</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B38">
-        <v>0.1295193284749984</v>
+        <v>0.1152897700667381</v>
       </c>
       <c r="C38">
-        <v>0.1298600435256958</v>
+        <v>0.1160717159509658</v>
       </c>
       <c r="D38">
-        <v>0.1288109123706817</v>
+        <v>0.11423110216856</v>
       </c>
       <c r="E38">
-        <v>0.1292909383773803</v>
+        <v>0.1154291778802871</v>
       </c>
       <c r="F38">
-        <v>1274056</v>
+        <v>822704</v>
       </c>
       <c r="G38">
-        <v>0.1308022782572272</v>
+        <v>0.1178573572427702</v>
       </c>
       <c r="H38">
-        <v>0.1308053575456142</v>
+        <v>0.1179726395756006</v>
       </c>
       <c r="I38">
-        <v>0.1308898056546847</v>
+        <v>0.1181675811608632</v>
       </c>
       <c r="L38">
-        <v>41.27868794271467</v>
+        <v>35.70169200562604</v>
       </c>
       <c r="M38">
-        <v>43.81298656726359</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+        <v>38.58747956708988</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B39">
-        <v>0.1292857378721237</v>
+        <v>0.115425020456314</v>
       </c>
       <c r="C39">
-        <v>0.1304979473352432</v>
+        <v>0.1165778338909149</v>
       </c>
       <c r="D39">
-        <v>0.1292857378721237</v>
+        <v>0.1142753586173057</v>
       </c>
       <c r="E39">
-        <v>0.1299449056386947</v>
+        <v>0.1163296699523925</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>12034808</v>
       </c>
       <c r="G39">
-        <v>0.1307243352919061</v>
+        <v>0.1177184765800086</v>
       </c>
       <c r="H39">
-        <v>0.1305821232497692</v>
+        <v>0.1177962753921747</v>
       </c>
       <c r="I39">
-        <v>0.1308788612484932</v>
+        <v>0.1179903609057267</v>
       </c>
       <c r="L39">
-        <v>45.59658913000168</v>
+        <v>42.37220462344642</v>
       </c>
       <c r="M39">
-        <v>46.56962542967802</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+        <v>42.98444804515842</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B40">
-        <v>0.1299465596675872</v>
+        <v>0.1163296625018119</v>
       </c>
       <c r="C40">
-        <v>0.1327295154333114</v>
+        <v>0.1173601448535919</v>
       </c>
       <c r="D40">
-        <v>0.1299465596675872</v>
+        <v>0.1161262914538383</v>
       </c>
       <c r="E40">
-        <v>0.1309940218925476</v>
+        <v>0.116541214287281</v>
       </c>
       <c r="F40">
-        <v>5223768</v>
+        <v>1448232</v>
       </c>
       <c r="G40">
-        <v>0.1307488522556008</v>
+        <v>0.1176114527352151</v>
       </c>
       <c r="H40">
-        <v>0.1305002927780151</v>
+        <v>0.1176376890391111</v>
       </c>
       <c r="I40">
-        <v>0.1309010495742162</v>
+        <v>0.1179000534117221</v>
       </c>
       <c r="L40">
-        <v>51.97048909946416</v>
+        <v>43.91007093856428</v>
       </c>
       <c r="M40">
-        <v>50.74456662161025</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+        <v>43.99882588317868</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B41">
-        <v>0.1310142278671264</v>
+        <v>0.1165533736348152</v>
       </c>
       <c r="C41">
-        <v>0.1320834010839462</v>
+        <v>0.116604059934616</v>
       </c>
       <c r="D41">
-        <v>0.1279811561107635</v>
+        <v>0.1155840754508972</v>
       </c>
       <c r="E41">
-        <v>0.1279811561107635</v>
+        <v>0.115636445581913</v>
       </c>
       <c r="F41">
-        <v>6476304</v>
+        <v>825840</v>
       </c>
       <c r="G41">
-        <v>0.130497243515161</v>
+        <v>0.1174319066303695</v>
       </c>
       <c r="H41">
-        <v>0.1303540237247944</v>
+        <v>0.1174169309437274</v>
       </c>
       <c r="I41">
-        <v>0.1307906786600748</v>
+        <v>0.1177846061686674</v>
       </c>
       <c r="L41">
-        <v>37.70023124976706</v>
+        <v>38.91346422093855</v>
       </c>
       <c r="M41">
-        <v>40.86835927732814</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
+        <v>40.66638225013573</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B42">
-        <v>0.1279764920473098</v>
+        <v>0.1156480386853218</v>
       </c>
       <c r="C42">
-        <v>0.1281009167432785</v>
+        <v>0.1168135330080986</v>
       </c>
       <c r="D42">
-        <v>0.1165507063269615</v>
+        <v>0.1153517663478851</v>
       </c>
       <c r="E42">
-        <v>0.1219420060515403</v>
+        <v>0.1160174533724784</v>
       </c>
       <c r="F42">
-        <v>62757640</v>
+        <v>3245400</v>
       </c>
       <c r="G42">
-        <v>0.1297194946548318</v>
+        <v>0.1173033199705612</v>
       </c>
       <c r="H42">
-        <v>0.1298509228974581</v>
+        <v>0.1172526828944683</v>
       </c>
       <c r="I42">
-        <v>0.1305422755579153</v>
+        <v>0.1177296787500381</v>
       </c>
       <c r="L42">
-        <v>23.2833967389486</v>
+        <v>42.03812081092456</v>
       </c>
       <c r="M42">
-        <v>28.77794565364569</v>
-      </c>
-      <c r="N42" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
+        <v>42.63670241795806</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B43">
-        <v>0.1219946816563606</v>
+        <v>0.1160448566079139</v>
       </c>
       <c r="C43">
-        <v>0.1225683838129043</v>
+        <v>0.1162039041519165</v>
       </c>
       <c r="D43">
-        <v>0.1202694401144981</v>
+        <v>0.1135473400354385</v>
       </c>
       <c r="E43">
-        <v>0.1208743974566459</v>
+        <v>0.1159355044364929</v>
       </c>
       <c r="F43">
-        <v>7508896</v>
+        <v>4170000</v>
       </c>
       <c r="G43">
-        <v>0.1289153949095422</v>
+        <v>0.1171789731038277</v>
       </c>
       <c r="H43">
-        <v>0.1293416798114776</v>
+        <v>0.1170419454574585</v>
       </c>
       <c r="I43">
-        <v>0.1302660355965296</v>
+        <v>0.1176911999781926</v>
       </c>
       <c r="L43">
-        <v>21.63778469532853</v>
+        <v>41.52417211888098</v>
       </c>
       <c r="M43">
-        <v>27.24354592475437</v>
-      </c>
-      <c r="N43" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
+        <v>42.31125113534803</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B44">
-        <v>0.120883010327816</v>
+        <v>0.1167152971029281</v>
       </c>
       <c r="C44">
-        <v>0.1218986138701438</v>
+        <v>0.1167803481221199</v>
       </c>
       <c r="D44">
-        <v>0.120062842965126</v>
+        <v>0.1152276471257209</v>
       </c>
       <c r="E44">
-        <v>0.120549701154232</v>
+        <v>0.1167381107807159</v>
       </c>
       <c r="F44">
-        <v>574080</v>
+        <v>4229456</v>
       </c>
       <c r="G44">
-        <v>0.1281548772954231</v>
+        <v>0.1171388947108176</v>
       </c>
       <c r="H44">
-        <v>0.1288441929966211</v>
+        <v>0.1169441673904657</v>
       </c>
       <c r="I44">
-        <v>0.129963693767786</v>
+        <v>0.1176850855350494</v>
       </c>
       <c r="L44">
-        <v>21.12688643883575</v>
+        <v>48.46611656192508</v>
       </c>
       <c r="M44">
-        <v>26.77594697273431</v>
-      </c>
-      <c r="N44" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
+        <v>46.60967186174834</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B45">
-        <v>0.1205497458577156</v>
+        <v>0.1167384907603263</v>
       </c>
       <c r="C45">
-        <v>0.1214178055524826</v>
+        <v>0.1223006471991539</v>
       </c>
       <c r="D45">
-        <v>0.1198507845401763</v>
+        <v>0.1153193339705467</v>
       </c>
       <c r="E45">
-        <v>0.1211074590682983</v>
+        <v>0.1205645427107811</v>
       </c>
       <c r="F45">
-        <v>3597696</v>
+        <v>22644896</v>
       </c>
       <c r="G45">
-        <v>0.127514202911139</v>
+        <v>0.1174503172562688</v>
       </c>
       <c r="H45">
-        <v>0.1284159023314714</v>
+        <v>0.1170496542006731</v>
       </c>
       <c r="I45">
-        <v>0.1296731489400068</v>
+        <v>0.1177333561082681</v>
       </c>
       <c r="L45">
-        <v>24.56875151877442</v>
+        <v>68.51393352616729</v>
       </c>
       <c r="M45">
-        <v>29.02936451874719</v>
-      </c>
-      <c r="N45" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
+        <v>61.3828542521667</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B46">
-        <v>0.1211089342832565</v>
+        <v>0.1207058578729629</v>
       </c>
       <c r="C46">
-        <v>0.1220298409461975</v>
+        <v>0.1223391443490982</v>
       </c>
       <c r="D46">
-        <v>0.1209973245859146</v>
+        <v>0.1207058578729629</v>
       </c>
       <c r="E46">
-        <v>0.1210005804896354</v>
+        <v>0.121962122619152</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>6495232</v>
       </c>
       <c r="G46">
-        <v>0.1269220554182751</v>
+        <v>0.1178604813801672</v>
       </c>
       <c r="H46">
-        <v>0.1280180387198925</v>
+        <v>0.1172466710209846</v>
       </c>
       <c r="I46">
-        <v>0.1293167452017466</v>
+        <v>0.1178317209084828</v>
       </c>
       <c r="L46">
-        <v>24.33978131026398</v>
+        <v>72.85330095768565</v>
       </c>
       <c r="M46">
-        <v>28.8461728490524</v>
-      </c>
-      <c r="N46" t="s">
+        <v>65.17330668707486</v>
+      </c>
+      <c r="O46" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:15">
       <c r="A47" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B47">
-        <v>0.1209426894783973</v>
+        <v>0.122073158621788</v>
       </c>
       <c r="C47">
-        <v>0.1213466450572013</v>
+        <v>0.1224295496940612</v>
       </c>
       <c r="D47">
-        <v>0.1197919249534607</v>
+        <v>0.1205940544605255</v>
       </c>
       <c r="E47">
-        <v>0.1201046630740165</v>
+        <v>0.121910311281681</v>
       </c>
       <c r="F47">
-        <v>4261920</v>
+        <v>6116448</v>
       </c>
       <c r="G47">
-        <v>0.1263022924778879</v>
+        <v>0.1182286477348503</v>
       </c>
       <c r="H47">
-        <v>0.1276048514991998</v>
+        <v>0.1175805438309907</v>
       </c>
       <c r="I47">
-        <v>0.1288579714794953</v>
+        <v>0.1179823011159896</v>
       </c>
       <c r="L47">
-        <v>22.37344173287617</v>
+        <v>72.4369411520252</v>
       </c>
       <c r="M47">
-        <v>27.29143708214236</v>
-      </c>
-      <c r="N47" t="s">
+        <v>64.91890796589446</v>
+      </c>
+      <c r="O47" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:15">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B48">
-        <v>0.1201076805591583</v>
+        <v>0.1219212636351585</v>
       </c>
       <c r="C48">
-        <v>0.1220113933086395</v>
+        <v>0.1247535422444343</v>
       </c>
       <c r="D48">
-        <v>0.1200690120458602</v>
+        <v>0.1218964681029319</v>
       </c>
       <c r="E48">
-        <v>0.1214603185653686</v>
+        <v>0.1246986612677574</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>6236864</v>
       </c>
       <c r="G48">
-        <v>0.1258621130312952</v>
+        <v>0.1188168307832964</v>
       </c>
       <c r="H48">
-        <v>0.1272560786455869</v>
+        <v>0.1180737044662237</v>
       </c>
       <c r="I48">
-        <v>0.1284022120138009</v>
+        <v>0.1181928942600886</v>
       </c>
       <c r="L48">
-        <v>31.75825913641235</v>
+        <v>79.52246838183687</v>
       </c>
       <c r="M48">
-        <v>33.16172823893547</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+        <v>71.39112548469927</v>
+      </c>
+      <c r="O48" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B49">
-        <v>0.1214524433016777</v>
+        <v>0.1246979385614395</v>
       </c>
       <c r="C49">
-        <v>0.1215837746858596</v>
+        <v>0.1260432451963424</v>
       </c>
       <c r="D49">
-        <v>0.1205390617251396</v>
+        <v>0.122425191104412</v>
       </c>
       <c r="E49">
-        <v>0.1209889575839042</v>
+        <v>0.1226973235607147</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>16992800</v>
       </c>
       <c r="G49">
-        <v>0.1254190988997142</v>
+        <v>0.1191696028539708</v>
       </c>
       <c r="H49">
-        <v>0.1268105596303939</v>
+        <v>0.1184374991804361</v>
       </c>
       <c r="I49">
-        <v>0.1279548575480779</v>
+        <v>0.118287573258082</v>
       </c>
       <c r="L49">
-        <v>30.32421702017047</v>
+        <v>65.85314818167242</v>
       </c>
       <c r="M49">
-        <v>32.18861072463928</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
+        <v>62.48096536299503</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B50">
-        <v>0.1209907904267311</v>
+        <v>0.1227515488862991</v>
       </c>
       <c r="C50">
-        <v>0.1221513003110885</v>
+        <v>0.1236449405550956</v>
       </c>
       <c r="D50">
-        <v>0.1209907904267311</v>
+        <v>0.1212827935814857</v>
       </c>
       <c r="E50">
-        <v>0.1216462776064872</v>
+        <v>0.1236449405550956</v>
       </c>
       <c r="F50">
-        <v>5158992</v>
+        <v>5688464</v>
       </c>
       <c r="G50">
-        <v>0.1250761151457845</v>
+        <v>0.1195764517358912</v>
       </c>
       <c r="H50">
-        <v>0.1263774532824754</v>
+        <v>0.1187793273478746</v>
       </c>
       <c r="I50">
-        <v>0.1275887124240398</v>
+        <v>0.1184186398983001</v>
       </c>
       <c r="L50">
-        <v>34.93355002266084</v>
+        <v>68.71748273970826</v>
       </c>
       <c r="M50">
-        <v>35.05087262111994</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
+        <v>64.72585464407857</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B51">
-        <v>0.1216407418251037</v>
+        <v>0.1236358359456062</v>
       </c>
       <c r="C51">
-        <v>0.1219271197915077</v>
+        <v>0.1241641417145729</v>
       </c>
       <c r="D51">
-        <v>0.1190588548779487</v>
+        <v>0.1225606575608253</v>
       </c>
       <c r="E51">
-        <v>0.119250439107418</v>
+        <v>0.1236118450760841</v>
       </c>
       <c r="F51">
-        <v>13423096</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>0.1245465082332057</v>
+        <v>0.1199433056759087</v>
       </c>
       <c r="H51">
-        <v>0.125787379592657</v>
+        <v>0.119086654856801</v>
       </c>
       <c r="I51">
-        <v>0.1272001758217811</v>
+        <v>0.1185373144845167</v>
       </c>
       <c r="L51">
-        <v>27.47941965468742</v>
+        <v>68.49174733918062</v>
       </c>
       <c r="M51">
-        <v>30.06901521050656</v>
-      </c>
-      <c r="N51" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
+        <v>64.58052127846919</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B52">
-        <v>0.1192508041858673</v>
+        <v>0.1235807389020919</v>
       </c>
       <c r="C52">
-        <v>0.11930613219738</v>
+        <v>0.123761273920536</v>
       </c>
       <c r="D52">
-        <v>0.1182062700390815</v>
+        <v>0.1223059669137001</v>
       </c>
       <c r="E52">
-        <v>0.1190998628735542</v>
+        <v>0.1233797818422317</v>
       </c>
       <c r="F52">
-        <v>4047384</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>0.1240513586550556</v>
+        <v>0.1202557126001199</v>
       </c>
       <c r="H52">
-        <v>0.1251469906419515</v>
+        <v>0.1193070609122514</v>
       </c>
       <c r="I52">
-        <v>0.1267700371642907</v>
+        <v>0.1186732267340024</v>
       </c>
       <c r="L52">
-        <v>27.07099690481527</v>
+        <v>66.761730982129</v>
       </c>
       <c r="M52">
-        <v>29.78250686046247</v>
-      </c>
-      <c r="N52" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
+        <v>63.50378462295782</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B53">
-        <v>0.119097426533699</v>
+        <v>0.1233573257923126</v>
       </c>
       <c r="C53">
-        <v>0.1200045347213745</v>
+        <v>0.1241137161850929</v>
       </c>
       <c r="D53">
-        <v>0.1176652759313583</v>
+        <v>0.1228316873311996</v>
       </c>
       <c r="E53">
-        <v>0.1176652759313583</v>
+        <v>0.1230698823928833</v>
       </c>
       <c r="F53">
-        <v>3598848</v>
+        <v>465416</v>
       </c>
       <c r="G53">
-        <v>0.123470805680174</v>
+        <v>0.1205115462176439</v>
       </c>
       <c r="H53">
-        <v>0.1243763078004121</v>
+        <v>0.1194799911230802</v>
       </c>
       <c r="I53">
-        <v>0.1263235710561275</v>
+        <v>0.1187705477078755</v>
       </c>
       <c r="L53">
-        <v>23.35108689418056</v>
+        <v>64.32093597658653</v>
       </c>
       <c r="M53">
-        <v>27.1301864708721</v>
-      </c>
-      <c r="N53" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
+        <v>62.01676664348606</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B54">
-        <v>0.1176545843482017</v>
+        <v>0.1230806857347488</v>
       </c>
       <c r="C54">
-        <v>0.1183334067463874</v>
+        <v>0.1242440044879913</v>
       </c>
       <c r="D54">
-        <v>0.1164221316576004</v>
+        <v>0.122110366821289</v>
       </c>
       <c r="E54">
-        <v>0.1170898675918579</v>
+        <v>0.1241754218935966</v>
       </c>
       <c r="F54">
-        <v>4407920</v>
+        <v>423920</v>
       </c>
       <c r="G54">
-        <v>0.122890720399418</v>
+        <v>0.1208446258245487</v>
       </c>
       <c r="H54">
-        <v>0.1236765753477811</v>
+        <v>0.1197270691394805</v>
       </c>
       <c r="I54">
-        <v>0.125876585394144</v>
+        <v>0.1189532727003097</v>
       </c>
       <c r="L54">
-        <v>21.98772756937896</v>
+        <v>68.886171183154</v>
       </c>
       <c r="M54">
-        <v>26.12520422555665</v>
-      </c>
-      <c r="N54" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
+        <v>65.15175323459198</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B55">
-        <v>0.1171879842877388</v>
+        <v>0.1241692528128624</v>
       </c>
       <c r="C55">
-        <v>0.1174637079238891</v>
+        <v>0.1253168433904647</v>
       </c>
       <c r="D55">
-        <v>0.1151824593544006</v>
+        <v>0.1222253441810607</v>
       </c>
       <c r="E55">
-        <v>0.1169215440750122</v>
+        <v>0.1222253441810607</v>
       </c>
       <c r="F55">
-        <v>5672376</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>0.1223480680062902</v>
+        <v>0.1209701456751407</v>
       </c>
       <c r="H55">
-        <v>0.1229000035673379</v>
+        <v>0.1198618531227111</v>
       </c>
       <c r="I55">
-        <v>0.125451527784268</v>
+        <v>0.1190789572894573</v>
       </c>
       <c r="L55">
-        <v>21.57321353228602</v>
+        <v>54.93709176510539</v>
       </c>
       <c r="M55">
-        <v>25.82384818693403</v>
-      </c>
-      <c r="N55" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+        <v>56.32137436246284</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B56">
-        <v>0.1169161647558212</v>
+        <v>0.1221895143389701</v>
       </c>
       <c r="C56">
-        <v>0.1191164255142211</v>
+        <v>0.1230193823575973</v>
       </c>
       <c r="D56">
-        <v>0.1169089749455452</v>
+        <v>0.1183961033821106</v>
       </c>
       <c r="E56">
-        <v>0.1191164255142211</v>
+        <v>0.1207046434283256</v>
       </c>
       <c r="F56">
-        <v>886360</v>
+        <v>6731424</v>
       </c>
       <c r="G56">
-        <v>0.122054282325193</v>
+        <v>0.1209460091072484</v>
       </c>
       <c r="H56">
-        <v>0.1223270412534475</v>
+        <v>0.1200284615159034</v>
       </c>
       <c r="I56">
-        <v>0.1251234802107016</v>
+        <v>0.1191683858633041</v>
       </c>
       <c r="L56">
-        <v>38.56360577503812</v>
+        <v>46.64988066040625</v>
       </c>
       <c r="M56">
-        <v>36.16420302009681</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
+        <v>50.56582416279951</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B57">
-        <v>0.1191360875964164</v>
+        <v>0.1206931248307228</v>
       </c>
       <c r="C57">
-        <v>0.1196512356400489</v>
+        <v>0.1213691234588623</v>
       </c>
       <c r="D57">
-        <v>0.1188734397292137</v>
+        <v>0.1171711757779121</v>
       </c>
       <c r="E57">
-        <v>0.119011178612709</v>
+        <v>0.1190749704837799</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>11964208</v>
       </c>
       <c r="G57">
-        <v>0.121777636533149</v>
+        <v>0.1207759146869331</v>
       </c>
       <c r="H57">
-        <v>0.1218019988387823</v>
+        <v>0.1202173683792352</v>
       </c>
       <c r="I57">
-        <v>0.1248115725815296</v>
+        <v>0.1192964563767115</v>
       </c>
       <c r="L57">
-        <v>38.1181327828955</v>
+        <v>39.47137273180122</v>
       </c>
       <c r="M57">
-        <v>35.9057284500072</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
+        <v>45.23131797931581</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B58">
-        <v>0.1190113276243209</v>
+        <v>0.1190756261348724</v>
       </c>
       <c r="C58">
-        <v>0.1195715963840484</v>
+        <v>0.1193698123097419</v>
       </c>
       <c r="D58">
-        <v>0.1162638291716575</v>
+        <v>0.117891289293766</v>
       </c>
       <c r="E58">
-        <v>0.1173929050564765</v>
+        <v>0.1190303638577461</v>
       </c>
       <c r="F58">
-        <v>6417960</v>
+        <v>1077696</v>
       </c>
       <c r="G58">
-        <v>0.1213790245807242</v>
+        <v>0.1206172282479161</v>
       </c>
       <c r="H58">
-        <v>0.1212070971727371</v>
+        <v>0.1203974276781082</v>
       </c>
       <c r="I58">
-        <v>0.1244434768954912</v>
+        <v>0.1194362868865331</v>
       </c>
       <c r="L58">
-        <v>31.7698769766507</v>
+        <v>39.28522219058891</v>
       </c>
       <c r="M58">
-        <v>32.10600105098292</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
+        <v>45.09109746959421</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B59">
-        <v>0.1173967719078064</v>
+        <v>0.1190321668982505</v>
       </c>
       <c r="C59">
-        <v>0.1184461936354637</v>
+        <v>0.1202957183122634</v>
       </c>
       <c r="D59">
-        <v>0.1172324642539024</v>
+        <v>0.1189596876502037</v>
       </c>
       <c r="E59">
-        <v>0.1183808669447898</v>
+        <v>0.1200476288795471</v>
       </c>
       <c r="F59">
-        <v>53368</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>0.1211064647956393</v>
+        <v>0.1205654464871553</v>
       </c>
       <c r="H59">
-        <v>0.1206288952380418</v>
+        <v>0.1205833256244659</v>
       </c>
       <c r="I59">
-        <v>0.1240595278640588</v>
+        <v>0.1195904935399691</v>
       </c>
       <c r="L59">
-        <v>38.77321417965012</v>
+        <v>45.83851933148687</v>
       </c>
       <c r="M59">
-        <v>36.5225315524192</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
+        <v>48.97588440479958</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B60">
-        <v>0.1183843538165092</v>
+        <v>0.1200476288795471</v>
       </c>
       <c r="C60">
-        <v>0.1204555332660675</v>
+        <v>0.1203067153692245</v>
       </c>
       <c r="D60">
-        <v>0.1183843538165092</v>
+        <v>0.1193988919258117</v>
       </c>
       <c r="E60">
-        <v>0.1198569536209106</v>
+        <v>0.1196886748075485</v>
       </c>
       <c r="F60">
-        <v>112040</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>0.1209928728706639</v>
+        <v>0.1204857399708274</v>
       </c>
       <c r="H60">
-        <v>0.12007204182446</v>
+        <v>0.1207406986504793</v>
       </c>
       <c r="I60">
-        <v>0.1237111461659272</v>
+        <v>0.1196865034600098</v>
       </c>
       <c r="L60">
-        <v>47.78212465980687</v>
+        <v>43.9551624019909</v>
       </c>
       <c r="M60">
-        <v>42.53696541793372</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
+        <v>47.69362978277724</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B61">
-        <v>0.1198561787605285</v>
+        <v>0.119708776473999</v>
       </c>
       <c r="C61">
-        <v>0.1204410642385482</v>
+        <v>0.1199796944856643</v>
       </c>
       <c r="D61">
-        <v>0.1194088384509086</v>
+        <v>0.1190455332398414</v>
       </c>
       <c r="E61">
-        <v>0.1197129413485527</v>
+        <v>0.1198095679283142</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>0.1208765154595629</v>
+        <v>0.1204242697851443</v>
       </c>
       <c r="H61">
-        <v>0.1196586310863494</v>
+        <v>0.1209493547677993</v>
       </c>
       <c r="I61">
-        <v>0.1233331804474194</v>
+        <v>0.1197646458943684</v>
       </c>
       <c r="L61">
-        <v>47.02271059566169</v>
+        <v>44.8142632064315</v>
       </c>
       <c r="M61">
-        <v>42.1176779314848</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
+        <v>48.18565727198532</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B62">
-        <v>0.1197125166654586</v>
+        <v>0.1198095679283142</v>
       </c>
       <c r="C62">
-        <v>0.1201253458857536</v>
+        <v>0.1204300448298454</v>
       </c>
       <c r="D62">
-        <v>0.1191001608967781</v>
+        <v>0.1193535551428794</v>
       </c>
       <c r="E62">
-        <v>0.1200516074895858</v>
+        <v>0.1202978044748306</v>
       </c>
       <c r="F62">
-        <v>967744</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>0.1208015238259286</v>
+        <v>0.1204127729387522</v>
       </c>
       <c r="H62">
-        <v>0.1195641111582517</v>
+        <v>0.1211633723229169</v>
       </c>
       <c r="I62">
-        <v>0.1229379793008168</v>
+        <v>0.1198088506857554</v>
       </c>
       <c r="L62">
-        <v>49.16037873293307</v>
+        <v>48.4074262410968</v>
       </c>
       <c r="M62">
-        <v>43.52742103210547</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
+        <v>50.22215646240493</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B63">
-        <v>0.1201426461338996</v>
+        <v>0.1202755719423294</v>
       </c>
       <c r="C63">
-        <v>0.1204257681965828</v>
+        <v>0.1204619631171226</v>
       </c>
       <c r="D63">
-        <v>0.1188003197312355</v>
+        <v>0.1199865564703941</v>
       </c>
       <c r="E63">
-        <v>0.1193024143576622</v>
+        <v>0.1201758831739425</v>
       </c>
       <c r="F63">
-        <v>941424</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>0.1206652411469953</v>
+        <v>0.1203912375055877</v>
       </c>
       <c r="H63">
-        <v>0.1194855120033025</v>
+        <v>0.1213753912597894</v>
       </c>
       <c r="I63">
-        <v>0.1224787620206673</v>
+        <v>0.1198276708523432</v>
       </c>
       <c r="L63">
-        <v>44.67415031515161</v>
+        <v>47.53788190493546</v>
       </c>
       <c r="M63">
-        <v>41.1403325259626</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
+        <v>49.69686872758017</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B64">
-        <v>0.1193015649914741</v>
+        <v>0.1201797798275947</v>
       </c>
       <c r="C64">
-        <v>0.1204562708735466</v>
+        <v>0.1201797798275947</v>
       </c>
       <c r="D64">
-        <v>0.1193015649914741</v>
+        <v>0.1192132532596588</v>
       </c>
       <c r="E64">
-        <v>0.1201502531766891</v>
+        <v>0.1193515360355377</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>0.1206184240587856</v>
+        <v>0.1202967191901286</v>
       </c>
       <c r="H64">
-        <v>0.1194655396044254</v>
+        <v>0.1215060625225305</v>
       </c>
       <c r="I64">
-        <v>0.1221142865717411</v>
+        <v>0.1198315933346748</v>
       </c>
       <c r="L64">
-        <v>50.43294161935444</v>
+        <v>41.82333886301074</v>
       </c>
       <c r="M64">
-        <v>44.82781497991743</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
+        <v>46.1798878445741</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B65">
-        <v>0.1201596781611442</v>
+        <v>0.1193869784474372</v>
       </c>
       <c r="C65">
-        <v>0.1204878464341163</v>
+        <v>0.1196964755654335</v>
       </c>
       <c r="D65">
-        <v>0.1184227690100669</v>
+        <v>0.1185759902000427</v>
       </c>
       <c r="E65">
-        <v>0.1186936721205711</v>
+        <v>0.1196536570787429</v>
       </c>
       <c r="F65">
-        <v>760072</v>
+        <v>198732</v>
       </c>
       <c r="G65">
-        <v>0.120443446609857</v>
+        <v>0.1202382589981844</v>
       </c>
       <c r="H65">
-        <v>0.119344850257039</v>
+        <v>0.1214605182409286</v>
       </c>
       <c r="I65">
-        <v>0.1216556429862976</v>
+        <v>0.1198357264200846</v>
       </c>
       <c r="L65">
-        <v>41.98628920245158</v>
+        <v>44.57063181749033</v>
       </c>
       <c r="M65">
-        <v>40.17155861283161</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
+        <v>47.64232384261712</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B66">
-        <v>0.1186928078532219</v>
+        <v>0.119649089872837</v>
       </c>
       <c r="C66">
-        <v>0.1192123740911483</v>
+        <v>0.1203563064336776</v>
       </c>
       <c r="D66">
-        <v>0.1181725338101387</v>
+        <v>0.119649089872837</v>
       </c>
       <c r="E66">
-        <v>0.1184548065066337</v>
+        <v>0.1199663057923317</v>
       </c>
       <c r="F66">
-        <v>705800</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>0.1202626611459276</v>
+        <v>0.1202135359794705</v>
       </c>
       <c r="H66">
-        <v>0.1192175615578889</v>
+        <v>0.1213607273995876</v>
       </c>
       <c r="I66">
-        <v>0.121251614143451</v>
+        <v>0.1199221874276797</v>
       </c>
       <c r="L66">
-        <v>40.72784699542358</v>
+        <v>47.45919010568172</v>
       </c>
       <c r="M66">
-        <v>39.44792760737108</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
+        <v>49.18124594515696</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B67">
-        <v>0.1184543669223785</v>
+        <v>0.1199731603264808</v>
       </c>
       <c r="C67">
-        <v>0.1184678673744201</v>
+        <v>0.1204199641942977</v>
       </c>
       <c r="D67">
-        <v>0.1170453652739524</v>
+        <v>0.1196185424923896</v>
       </c>
       <c r="E67">
-        <v>0.1180217862129211</v>
+        <v>0.1204029470682144</v>
       </c>
       <c r="F67">
-        <v>834368</v>
+        <v>9556</v>
       </c>
       <c r="G67">
-        <v>0.120058945242927</v>
+        <v>0.1202307551693563</v>
       </c>
       <c r="H67">
-        <v>0.1191134177148342</v>
+        <v>0.1212853591889143</v>
       </c>
       <c r="I67">
-        <v>0.1208686061203479</v>
+        <v>0.1200923912227154</v>
       </c>
       <c r="L67">
-        <v>38.38169028577142</v>
+        <v>51.43550481502661</v>
       </c>
       <c r="M67">
-        <v>38.10778358565737</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
+        <v>51.33267284474138</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B68">
-        <v>0.1180289164185524</v>
+        <v>0.1203977614641189</v>
       </c>
       <c r="C68">
-        <v>0.1180289164185524</v>
+        <v>0.120690993964672</v>
       </c>
       <c r="D68">
-        <v>0.1149104461073875</v>
+        <v>0.1191761791706085</v>
       </c>
       <c r="E68">
-        <v>0.1152328550815582</v>
+        <v>0.1192405372858047</v>
       </c>
       <c r="F68">
-        <v>5715224</v>
+        <v>4948296</v>
       </c>
       <c r="G68">
-        <v>0.1196202097737117</v>
+        <v>0.1201407353617607</v>
       </c>
       <c r="H68">
-        <v>0.1188020445406437</v>
+        <v>0.1210124529898166</v>
       </c>
       <c r="I68">
-        <v>0.1204000033438205</v>
+        <v>0.1202194365362326</v>
       </c>
       <c r="L68">
-        <v>27.07902897678541</v>
+        <v>41.93141563488754</v>
       </c>
       <c r="M68">
-        <v>30.84062449718895</v>
-      </c>
-      <c r="N68" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
+        <v>45.77663040072364</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B69">
-        <v>0.1152339652180671</v>
+        <v>0.1192611977458</v>
       </c>
       <c r="C69">
-        <v>0.1179273352026939</v>
+        <v>0.1205301880836486</v>
       </c>
       <c r="D69">
-        <v>0.1129695624113082</v>
+        <v>0.1180374026298523</v>
       </c>
       <c r="E69">
-        <v>0.1148354485630989</v>
+        <v>0.118142582476139</v>
       </c>
       <c r="F69">
-        <v>34507800</v>
+        <v>7573504</v>
       </c>
       <c r="G69">
-        <v>0.1191852314818378</v>
+        <v>0.1199590850994315</v>
       </c>
       <c r="H69">
-        <v>0.1184943690896034</v>
+        <v>0.1207847159355878</v>
       </c>
       <c r="I69">
-        <v>0.119896354774634</v>
+        <v>0.1202798669536908</v>
       </c>
       <c r="L69">
-        <v>25.85833475363155</v>
+        <v>35.04953032442675</v>
       </c>
       <c r="M69">
-        <v>29.96376651201826</v>
-      </c>
-      <c r="N69" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
+        <v>41.23654671435964</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B70">
-        <v>0.1148362383246421</v>
+        <v>0.1181239113211631</v>
       </c>
       <c r="C70">
-        <v>0.1159516051411628</v>
+        <v>0.1200620383024215</v>
       </c>
       <c r="D70">
-        <v>0.1147310957312583</v>
+        <v>0.1181061938405036</v>
       </c>
       <c r="E70">
-        <v>0.1154214292764663</v>
+        <v>0.1198803484439849</v>
       </c>
       <c r="F70">
-        <v>4828080</v>
+        <v>2405024</v>
       </c>
       <c r="G70">
-        <v>0.1188430676449858</v>
+        <v>0.1199519272216636</v>
       </c>
       <c r="H70">
-        <v>0.1181831266731023</v>
+        <v>0.1205964863300323</v>
       </c>
       <c r="I70">
-        <v>0.119377268354098</v>
+        <v>0.1203911714255809</v>
       </c>
       <c r="L70">
-        <v>31.01677224117694</v>
+        <v>49.73775045667259</v>
       </c>
       <c r="M70">
-        <v>32.98917540398335</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
+        <v>49.73395119135665</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B71">
-        <v>0.1154304593801498</v>
+        <v>0.1198796406388282</v>
       </c>
       <c r="C71">
-        <v>0.1169788092374801</v>
+        <v>0.1207606717944145</v>
       </c>
       <c r="D71">
-        <v>0.1150805950164794</v>
+        <v>0.1192024424672126</v>
       </c>
       <c r="E71">
-        <v>0.1168083772063255</v>
+        <v>0.1195818707346916</v>
       </c>
       <c r="F71">
-        <v>7570544</v>
+        <v>1527944</v>
       </c>
       <c r="G71">
-        <v>0.1186580957869258</v>
+        <v>0.1199182857228479</v>
       </c>
       <c r="H71">
-        <v>0.1180610235780477</v>
+        <v>0.1203949876129627</v>
       </c>
       <c r="I71">
-        <v>0.1190048423906167</v>
+        <v>0.1205226855973402</v>
       </c>
       <c r="L71">
-        <v>41.79914951620498</v>
+        <v>47.65531587637651</v>
       </c>
       <c r="M71">
-        <v>39.63581535818124</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
+        <v>48.4383433683</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B72">
-        <v>0.1168149635195732</v>
+        <v>0.1195811033248901</v>
       </c>
       <c r="C72">
-        <v>0.1175970584154129</v>
+        <v>0.1199680417776107</v>
       </c>
       <c r="D72">
-        <v>0.1165890619158744</v>
+        <v>0.1192807257175445</v>
       </c>
       <c r="E72">
-        <v>0.1174652948975563</v>
+        <v>0.1196123138070106</v>
       </c>
       <c r="F72">
-        <v>4822040</v>
+        <v>1390664</v>
       </c>
       <c r="G72">
-        <v>0.1185496593424377</v>
+        <v>0.1198904700941355</v>
       </c>
       <c r="H72">
-        <v>0.1179792951792478</v>
+        <v>0.1202066142112016</v>
       </c>
       <c r="I72">
-        <v>0.1188556186854839</v>
+        <v>0.1206425142784913</v>
       </c>
       <c r="L72">
-        <v>46.27381276696578</v>
+        <v>47.90558397874162</v>
       </c>
       <c r="M72">
-        <v>42.54276430298511</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
+        <v>48.58546203995033</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B73">
-        <v>0.1174610257148742</v>
+        <v>0.1196212992072105</v>
       </c>
       <c r="C73">
-        <v>0.1193446293473243</v>
+        <v>0.1197202280163765</v>
       </c>
       <c r="D73">
-        <v>0.1166585981845855</v>
+        <v>0.1179479211568832</v>
       </c>
       <c r="E73">
-        <v>0.1189716607332229</v>
+        <v>0.117966316640377</v>
       </c>
       <c r="F73">
-        <v>10285712</v>
+        <v>1520552</v>
       </c>
       <c r="G73">
-        <v>0.1185880231052363</v>
+        <v>0.1197155470528847</v>
       </c>
       <c r="H73">
-        <v>0.118044614419341</v>
+        <v>0.1199514359235763</v>
       </c>
       <c r="I73">
-        <v>0.1187921941280365</v>
+        <v>0.1207102080186208</v>
       </c>
       <c r="L73">
-        <v>55.16603309671141</v>
+        <v>37.11248656148413</v>
       </c>
       <c r="M73">
-        <v>48.649472366056</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
+        <v>41.66359899151735</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B74">
-        <v>0.1189909055829048</v>
+        <v>0.117969311773777</v>
       </c>
       <c r="C74">
-        <v>0.1200560256838798</v>
+        <v>0.1195288896560669</v>
       </c>
       <c r="D74">
-        <v>0.1183289065957069</v>
+        <v>0.1179428175091743</v>
       </c>
       <c r="E74">
-        <v>0.1196112781763076</v>
+        <v>0.1192050278186798</v>
       </c>
       <c r="F74">
-        <v>2828400</v>
+        <v>53752</v>
       </c>
       <c r="G74">
-        <v>0.1186810462935155</v>
+        <v>0.1196691362134115</v>
       </c>
       <c r="H74">
-        <v>0.1181706849485635</v>
+        <v>0.1197029162198305</v>
       </c>
       <c r="I74">
-        <v>0.1187609133621056</v>
+        <v>0.1207924385865529</v>
       </c>
       <c r="L74">
-        <v>58.45097290882137</v>
+        <v>47.18641969950924</v>
       </c>
       <c r="M74">
-        <v>51.02944509571544</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
+        <v>47.70206795493126</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B75">
-        <v>0.1196228042244911</v>
+        <v>0.1192050278186798</v>
       </c>
       <c r="C75">
-        <v>0.1198096498847007</v>
+        <v>0.1193863302469253</v>
       </c>
       <c r="D75">
-        <v>0.1181053221225738</v>
+        <v>0.1180921494960784</v>
       </c>
       <c r="E75">
-        <v>0.1192338615655899</v>
+        <v>0.1181982308626174</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>0.1187313022273405</v>
+        <v>0.1195354175451575</v>
       </c>
       <c r="H75">
-        <v>0.1182863008230924</v>
+        <v>0.1195015605539083</v>
       </c>
       <c r="I75">
-        <v>0.1186984601120154</v>
+        <v>0.1207135615249474</v>
       </c>
       <c r="L75">
-        <v>55.73990909860856</v>
+        <v>41.15788155137839</v>
       </c>
       <c r="M75">
-        <v>49.56953108745481</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
+        <v>43.73915849753543</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B76">
-        <v>0.1192420199513435</v>
+        <v>0.1181924268603324</v>
       </c>
       <c r="C76">
-        <v>0.1201652735471725</v>
+        <v>0.1188218295574188</v>
       </c>
       <c r="D76">
-        <v>0.1189014539122581</v>
+        <v>0.1181461587548255</v>
       </c>
       <c r="E76">
-        <v>0.1195296645164489</v>
+        <v>0.1188041716814041</v>
       </c>
       <c r="F76">
-        <v>3078952</v>
+        <v>0</v>
       </c>
       <c r="G76">
-        <v>0.1188038806172594</v>
+        <v>0.1194689406484526</v>
       </c>
       <c r="H76">
-        <v>0.1183069627732038</v>
+        <v>0.1194065369665623</v>
       </c>
       <c r="I76">
-        <v>0.1186494295795758</v>
+        <v>0.1206082964936892</v>
       </c>
       <c r="L76">
-        <v>57.47885841944966</v>
+        <v>45.84270064086196</v>
       </c>
       <c r="M76">
-        <v>50.75858923257972</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
+        <v>46.61377022767387</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B77">
-        <v>0.1195278838276863</v>
+        <v>0.1188103407621383</v>
       </c>
       <c r="C77">
-        <v>0.1195278838276863</v>
+        <v>0.1189367696642875</v>
       </c>
       <c r="D77">
-        <v>0.1168742030858993</v>
+        <v>0.1181697100400924</v>
       </c>
       <c r="E77">
-        <v>0.1173724755644798</v>
+        <v>0.1183742433786392</v>
       </c>
       <c r="F77">
         <v>0</v>
       </c>
       <c r="G77">
-        <v>0.1186737528851885</v>
+        <v>0.1193694227148332</v>
       </c>
       <c r="H77">
-        <v>0.1182250276207923</v>
+        <v>0.1193715006113052</v>
       </c>
       <c r="I77">
-        <v>0.1185583566625912</v>
+        <v>0.1204904275635878</v>
       </c>
       <c r="L77">
-        <v>43.46756705650382</v>
+        <v>43.10343141028903</v>
       </c>
       <c r="M77">
-        <v>42.82795697386453</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
+        <v>44.86229124443528</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B78">
-        <v>0.1173857152462005</v>
+        <v>0.1183768585324287</v>
       </c>
       <c r="C78">
-        <v>0.1174811497330665</v>
+        <v>0.118917167186737</v>
       </c>
       <c r="D78">
-        <v>0.1147323995828628</v>
+        <v>0.118136778473854</v>
       </c>
       <c r="E78">
-        <v>0.115296833217144</v>
+        <v>0.1187557801604271</v>
       </c>
       <c r="F78">
-        <v>3813760</v>
+        <v>2666680</v>
       </c>
       <c r="G78">
-        <v>0.1183667601880936</v>
+        <v>0.119313637028069</v>
       </c>
       <c r="H78">
-        <v>0.1181202240288257</v>
+        <v>0.1193577714264393</v>
       </c>
       <c r="I78">
-        <v>0.1183529071509838</v>
+        <v>0.1202923315266768</v>
       </c>
       <c r="L78">
-        <v>34.39248692133759</v>
+        <v>46.3065897784079</v>
       </c>
       <c r="M78">
-        <v>36.86027277733596</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
+        <v>46.77365099294587</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B79">
-        <v>0.1152897700667381</v>
+        <v>0.1187601909041404</v>
       </c>
       <c r="C79">
-        <v>0.1160717159509658</v>
+        <v>0.1189709454774856</v>
       </c>
       <c r="D79">
-        <v>0.11423110216856</v>
+        <v>0.1167691797018051</v>
       </c>
       <c r="E79">
-        <v>0.1154291778802871</v>
+        <v>0.1183687672019004</v>
       </c>
       <c r="F79">
-        <v>822704</v>
+        <v>2642376</v>
       </c>
       <c r="G79">
-        <v>0.1180997072510203</v>
+        <v>0.1192277397711446</v>
       </c>
       <c r="H79">
-        <v>0.1179726395756006</v>
+        <v>0.1192738283425569</v>
       </c>
       <c r="I79">
-        <v>0.1181675811608632</v>
+        <v>0.1201480463147163</v>
       </c>
       <c r="L79">
-        <v>35.3605182975941</v>
+        <v>43.51124450414411</v>
       </c>
       <c r="M79">
-        <v>37.45866264665926</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
+        <v>45.06707030927765</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B80">
-        <v>0.115425020456314</v>
+        <v>0.1183656752109527</v>
       </c>
       <c r="C80">
-        <v>0.1165778338909149</v>
+        <v>0.1185943707823753</v>
       </c>
       <c r="D80">
-        <v>0.1142753586173057</v>
+        <v>0.1179435923695564</v>
       </c>
       <c r="E80">
-        <v>0.1163296699523925</v>
+        <v>0.1181285679340362</v>
       </c>
       <c r="F80">
-        <v>12034808</v>
+        <v>805748</v>
       </c>
       <c r="G80">
-        <v>0.1179387947693268</v>
+        <v>0.1191278150586802</v>
       </c>
       <c r="H80">
-        <v>0.1177962753921747</v>
+        <v>0.1191958229988813</v>
       </c>
       <c r="I80">
-        <v>0.1179903609057267</v>
+        <v>0.1199641672273477</v>
       </c>
       <c r="L80">
-        <v>41.92025682847105</v>
+        <v>41.75144626601247</v>
       </c>
       <c r="M80">
-        <v>41.51980739946541</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15">
+        <v>43.99418888579765</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B81">
-        <v>0.1163296625018119</v>
+        <v>0.1181186586618423</v>
       </c>
       <c r="C81">
-        <v>0.1173601448535919</v>
+        <v>0.119223840534687</v>
       </c>
       <c r="D81">
-        <v>0.1161262914538383</v>
+        <v>0.1181186586618423</v>
       </c>
       <c r="E81">
-        <v>0.116541214287281</v>
+        <v>0.1185463592410087</v>
       </c>
       <c r="F81">
-        <v>1448232</v>
+        <v>231060</v>
       </c>
       <c r="G81">
-        <v>0.1178117419982318</v>
+        <v>0.1190749554388919</v>
       </c>
       <c r="H81">
-        <v>0.1176376890391111</v>
+        <v>0.119132662564516</v>
       </c>
       <c r="I81">
-        <v>0.1179000534117221</v>
+        <v>0.1197953176995118</v>
       </c>
       <c r="L81">
-        <v>43.43728259569345</v>
+        <v>46.0232231708062</v>
       </c>
       <c r="M81">
-        <v>42.46499849963802</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15">
+        <v>46.38503081246312</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B82">
-        <v>0.1165533736348152</v>
+        <v>0.1185304149985313</v>
       </c>
       <c r="C82">
-        <v>0.116604059934616</v>
+        <v>0.1192448511719703</v>
       </c>
       <c r="D82">
-        <v>0.1155840754508972</v>
+        <v>0.1185304149985313</v>
       </c>
       <c r="E82">
-        <v>0.115636445581913</v>
+        <v>0.1186845377087593</v>
       </c>
       <c r="F82">
-        <v>825840</v>
+        <v>555868</v>
       </c>
       <c r="G82">
-        <v>0.1176139877785664</v>
+        <v>0.1190394629179707</v>
       </c>
       <c r="H82">
-        <v>0.1174169309437275</v>
+        <v>0.1190519992262125</v>
       </c>
       <c r="I82">
-        <v>0.1177846061686674</v>
+        <v>0.1196388095617294</v>
       </c>
       <c r="L82">
-        <v>38.58768515217535</v>
+        <v>47.4569685718952</v>
       </c>
       <c r="M82">
-        <v>39.5227532217074</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15">
+        <v>47.1880312574453</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B83">
-        <v>0.1156480386853218</v>
+        <v>0.1186719834804534</v>
       </c>
       <c r="C83">
-        <v>0.1168135330080986</v>
+        <v>0.118704617023468</v>
       </c>
       <c r="D83">
-        <v>0.1153517663478851</v>
+        <v>0.1173640787601471</v>
       </c>
       <c r="E83">
-        <v>0.1160174533724784</v>
+        <v>0.117408350110054</v>
       </c>
       <c r="F83">
-        <v>3245400</v>
+        <v>754544</v>
       </c>
       <c r="G83">
-        <v>0.1174688482871039</v>
+        <v>0.1188911799354329</v>
       </c>
       <c r="H83">
-        <v>0.1172526828944683</v>
+        <v>0.118913622573018</v>
       </c>
       <c r="I83">
-        <v>0.1177296787500381</v>
+        <v>0.1194500918189684</v>
       </c>
       <c r="L83">
-        <v>41.67274361196475</v>
+        <v>37.19230249510625</v>
       </c>
       <c r="M83">
-        <v>41.36515568871344</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15">
+        <v>41.06998078126355</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B84">
-        <v>0.1160448566079139</v>
+        <v>0.1174196228384971</v>
       </c>
       <c r="C84">
-        <v>0.1162039041519165</v>
+        <v>0.1179588735103607</v>
       </c>
       <c r="D84">
-        <v>0.1135473400354385</v>
+        <v>0.1173834502696991</v>
       </c>
       <c r="E84">
-        <v>0.1159355044364929</v>
+        <v>0.1175820454955101</v>
       </c>
       <c r="F84">
-        <v>4170000</v>
+        <v>0</v>
       </c>
       <c r="G84">
-        <v>0.1173294533915938</v>
+        <v>0.1187721677136217</v>
       </c>
       <c r="H84">
-        <v>0.1170419454574585</v>
+        <v>0.1188251480460167</v>
       </c>
       <c r="I84">
-        <v>0.1176911999781926</v>
+        <v>0.1192303126056989</v>
       </c>
       <c r="L84">
-        <v>41.17227735004484</v>
+        <v>39.20571997761253</v>
       </c>
       <c r="M84">
-        <v>41.07530957170771</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15">
+        <v>42.16898772317504</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B85">
-        <v>0.1167152971029281</v>
+        <v>0.1175806671380996</v>
       </c>
       <c r="C85">
-        <v>0.1167803481221199</v>
+        <v>0.1183563321828842</v>
       </c>
       <c r="D85">
-        <v>0.1152276471257209</v>
+        <v>0.1174404248595237</v>
       </c>
       <c r="E85">
-        <v>0.1167381107807159</v>
+        <v>0.1175453960895538</v>
       </c>
       <c r="F85">
-        <v>4229456</v>
+        <v>269200</v>
       </c>
       <c r="G85">
-        <v>0.117275694972423</v>
+        <v>0.1186606430205246</v>
       </c>
       <c r="H85">
-        <v>0.1169441673904657</v>
+        <v>0.1187197349965572</v>
       </c>
       <c r="I85">
-        <v>0.1176850855350494</v>
+        <v>0.119074314335982</v>
       </c>
       <c r="L85">
-        <v>48.04685953197426</v>
+        <v>38.90963978532315</v>
       </c>
       <c r="M85">
-        <v>45.130469789843</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15">
+        <v>41.99104351269523</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B86">
-        <v>0.1167384907603263</v>
+        <v>0.1175403445959091</v>
       </c>
       <c r="C86">
-        <v>0.1223006471991539</v>
+        <v>0.1190551295876503</v>
       </c>
       <c r="D86">
-        <v>0.1153193339705467</v>
+        <v>0.1171652600169181</v>
       </c>
       <c r="E86">
-        <v>0.1205645427107811</v>
+        <v>0.1188914030790329</v>
       </c>
       <c r="F86">
-        <v>22644896</v>
+        <v>2777820</v>
       </c>
       <c r="G86">
-        <v>0.1175746811304556</v>
+        <v>0.1186816212076617</v>
       </c>
       <c r="H86">
-        <v>0.1170496542006731</v>
+        <v>0.1186659898608922</v>
       </c>
       <c r="I86">
-        <v>0.1177333561082681</v>
+        <v>0.1190138729910055</v>
       </c>
       <c r="L86">
-        <v>68.06362263136934</v>
+        <v>53.43820004323317</v>
       </c>
       <c r="M86">
-        <v>59.45606540663635</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15">
+        <v>50.28797002294445</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B87">
-        <v>0.1207058578729629</v>
+        <v>0.1189173310995101</v>
       </c>
       <c r="C87">
-        <v>0.1223391443490982</v>
+        <v>0.1191132664680481</v>
       </c>
       <c r="D87">
-        <v>0.1207058578729629</v>
+        <v>0.1182990074157714</v>
       </c>
       <c r="E87">
-        <v>0.121962122619152</v>
+        <v>0.1187198758125305</v>
       </c>
       <c r="F87">
-        <v>6495232</v>
+        <v>837432</v>
       </c>
       <c r="G87">
-        <v>0.1179735394476098</v>
+        <v>0.1186850988990134</v>
       </c>
       <c r="H87">
-        <v>0.1172466710209846</v>
+        <v>0.1185818362981081</v>
       </c>
       <c r="I87">
-        <v>0.1178317209084828</v>
+        <v>0.1190020365019639</v>
       </c>
       <c r="L87">
-        <v>72.42854833798208</v>
+        <v>51.6763062312267</v>
       </c>
       <c r="M87">
-        <v>63.23195529519764</v>
-      </c>
-      <c r="O87" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15">
+        <v>49.3198822034283</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B88">
-        <v>0.122073158621788</v>
+        <v>0.118746630847454</v>
       </c>
       <c r="C88">
-        <v>0.1224295496940612</v>
+        <v>0.1187729984521865</v>
       </c>
       <c r="D88">
-        <v>0.1205940544605255</v>
+        <v>0.1172573417425155</v>
       </c>
       <c r="E88">
-        <v>0.121910311281681</v>
+        <v>0.1173283979296684</v>
       </c>
       <c r="F88">
-        <v>6116448</v>
+        <v>1039140</v>
       </c>
       <c r="G88">
-        <v>0.1183314277961617</v>
+        <v>0.1185617624472548</v>
       </c>
       <c r="H88">
-        <v>0.1175805438309907</v>
+        <v>0.1184862293303012</v>
       </c>
       <c r="I88">
-        <v>0.1179823011159896</v>
+        <v>0.1189453043043613</v>
       </c>
       <c r="L88">
-        <v>72.0180294759997</v>
+        <v>39.72347461127296</v>
       </c>
       <c r="M88">
-        <v>62.99772066514321</v>
-      </c>
-      <c r="O88" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15">
+        <v>42.21936236092812</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B89">
-        <v>0.1219212636351585</v>
+        <v>0.1173283979296684</v>
       </c>
       <c r="C89">
-        <v>0.1247535422444343</v>
+        <v>0.1178863495588302</v>
       </c>
       <c r="D89">
-        <v>0.1218964681029319</v>
+        <v>0.1173254251480102</v>
       </c>
       <c r="E89">
-        <v>0.1246986612677574</v>
+        <v>0.1177905201911926</v>
       </c>
       <c r="F89">
-        <v>6236864</v>
+        <v>1228076</v>
       </c>
       <c r="G89">
-        <v>0.1189102672026704</v>
+        <v>0.1184916495148855</v>
       </c>
       <c r="H89">
-        <v>0.1180737044662237</v>
+        <v>0.1184686262160539</v>
       </c>
       <c r="I89">
-        <v>0.1181928942600886</v>
+        <v>0.1188700673480828</v>
       </c>
       <c r="L89">
-        <v>79.16708145321856</v>
+        <v>44.51819234841933</v>
       </c>
       <c r="M89">
-        <v>69.53779881450131</v>
-      </c>
-      <c r="O89" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15">
+        <v>45.04886465393675</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B90">
-        <v>0.1246979385614395</v>
+        <v>0.1178040131926536</v>
       </c>
       <c r="C90">
-        <v>0.1260432451963424</v>
+        <v>0.1179385855793953</v>
       </c>
       <c r="D90">
-        <v>0.122425191104412</v>
+        <v>0.1164335384964943</v>
       </c>
       <c r="E90">
-        <v>0.1226973235607147</v>
+        <v>0.1166102886199951</v>
       </c>
       <c r="F90">
-        <v>16992800</v>
+        <v>921604</v>
       </c>
       <c r="G90">
-        <v>0.1192545450534017</v>
+        <v>0.1183206167062591</v>
       </c>
       <c r="H90">
-        <v>0.1184374991804361</v>
+        <v>0.1183051232248545</v>
       </c>
       <c r="I90">
-        <v>0.118287573258082</v>
+        <v>0.1187674544751644</v>
       </c>
       <c r="L90">
-        <v>65.6281099804043</v>
+        <v>36.23642477239262</v>
       </c>
       <c r="M90">
-        <v>61.17949547133797</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15">
+        <v>39.7016100766575</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B91">
-        <v>0.1227515488862991</v>
+        <v>0.1166172325611114</v>
       </c>
       <c r="C91">
-        <v>0.1236449405550956</v>
+        <v>0.1172603592276573</v>
       </c>
       <c r="D91">
-        <v>0.1212827935814857</v>
+        <v>0.1159558370709419</v>
       </c>
       <c r="E91">
-        <v>0.1236449405550956</v>
+        <v>0.1166228502988815</v>
       </c>
       <c r="F91">
-        <v>5688464</v>
+        <v>1347832</v>
       </c>
       <c r="G91">
-        <v>0.1196536719171921</v>
+        <v>0.1181662743055884</v>
       </c>
       <c r="H91">
-        <v>0.1187793273478746</v>
+        <v>0.1181571722030639</v>
       </c>
       <c r="I91">
-        <v>0.1184186398983001</v>
+        <v>0.1186612305541833</v>
       </c>
       <c r="L91">
-        <v>68.49787219324639</v>
+        <v>36.37814271589325</v>
       </c>
       <c r="M91">
-        <v>63.42142091909702</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15">
+        <v>39.78353714132124</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B92">
-        <v>0.1236358359456062</v>
+        <v>0.1166326180100441</v>
       </c>
       <c r="C92">
-        <v>0.1241641417145729</v>
+        <v>0.1166326180100441</v>
       </c>
       <c r="D92">
-        <v>0.1225606575608253</v>
+        <v>0.1134015619754791</v>
       </c>
       <c r="E92">
-        <v>0.1236118450760841</v>
+        <v>0.1134015619754791</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>4778940</v>
       </c>
       <c r="G92">
-        <v>0.1200135058407277</v>
+        <v>0.1177331186392148</v>
       </c>
       <c r="H92">
-        <v>0.119086654856801</v>
+        <v>0.1178466346114874</v>
       </c>
       <c r="I92">
-        <v>0.1185373144845168</v>
+        <v>0.1184313558042049</v>
       </c>
       <c r="L92">
-        <v>68.27390438914787</v>
+        <v>22.16571318467025</v>
       </c>
       <c r="M92">
-        <v>63.28396160781477</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15">
+        <v>28.92881124212385</v>
+      </c>
+      <c r="N92" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B93">
-        <v>0.1235807389020919</v>
+        <v>0.1134665980935096</v>
       </c>
       <c r="C93">
-        <v>0.123761273920536</v>
+        <v>0.1143732517957687</v>
       </c>
       <c r="D93">
-        <v>0.1223059669137001</v>
+        <v>0.1127324923872947</v>
       </c>
       <c r="E93">
-        <v>0.1233797818422317</v>
+        <v>0.1141770780086517</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>3728240</v>
       </c>
       <c r="G93">
-        <v>0.1203195309317735</v>
+        <v>0.1174098422182545</v>
       </c>
       <c r="H93">
-        <v>0.1193070609122514</v>
+        <v>0.1176571726799011</v>
       </c>
       <c r="I93">
-        <v>0.1186732267340024</v>
+        <v>0.1182313956320285</v>
       </c>
       <c r="L93">
-        <v>66.55720682833713</v>
+        <v>29.61355645430965</v>
       </c>
       <c r="M93">
-        <v>62.26489214485611</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15">
+        <v>33.62419541982942</v>
+      </c>
+      <c r="N93" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B94">
-        <v>0.1233573257923126</v>
+        <v>0.1141795888543129</v>
       </c>
       <c r="C94">
-        <v>0.1241137161850929</v>
+        <v>0.1143767684698104</v>
       </c>
       <c r="D94">
-        <v>0.1228316873311996</v>
+        <v>0.1126063466072082</v>
       </c>
       <c r="E94">
-        <v>0.1230698823928833</v>
+        <v>0.1134009584784507</v>
       </c>
       <c r="F94">
-        <v>465416</v>
+        <v>2725408</v>
       </c>
       <c r="G94">
-        <v>0.1205695628827835</v>
+        <v>0.1170453982419087</v>
       </c>
       <c r="H94">
-        <v>0.1194799911230802</v>
+        <v>0.1173669692128897</v>
       </c>
       <c r="I94">
-        <v>0.1187705477078755</v>
+        <v>0.1180330430467923</v>
       </c>
       <c r="L94">
-        <v>64.13451673133405</v>
+        <v>26.73347154862494</v>
       </c>
       <c r="M94">
-        <v>60.85557210614508</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15">
+        <v>31.38918233581908</v>
+      </c>
+      <c r="N94" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B95">
-        <v>0.1230806857347488</v>
+        <v>0.1134070456027984</v>
       </c>
       <c r="C95">
-        <v>0.1242440044879913</v>
+        <v>0.1144364401698112</v>
       </c>
       <c r="D95">
-        <v>0.122110366821289</v>
+        <v>0.1134070456027984</v>
       </c>
       <c r="E95">
-        <v>0.1241754218935966</v>
+        <v>0.1140372157096862</v>
       </c>
       <c r="F95">
-        <v>423920</v>
+        <v>1090136</v>
       </c>
       <c r="G95">
-        <v>0.1208973682474029</v>
+        <v>0.1167719271026157</v>
       </c>
       <c r="H95">
-        <v>0.1197270691394805</v>
+        <v>0.1171589184552431</v>
       </c>
       <c r="I95">
-        <v>0.1189532727003097</v>
+        <v>0.1178458283344904</v>
       </c>
       <c r="L95">
-        <v>68.70611666496811</v>
+        <v>32.7642276307614</v>
       </c>
       <c r="M95">
-        <v>63.98714206347827</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15">
+        <v>35.19233158018571</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B96">
-        <v>0.1241692528128624</v>
+        <v>0.1140453442931175</v>
       </c>
       <c r="C96">
-        <v>0.1253168433904647</v>
+        <v>0.1146867871284484</v>
       </c>
       <c r="D96">
-        <v>0.1222253441810607</v>
+        <v>0.1138140559196472</v>
       </c>
       <c r="E96">
-        <v>0.1222253441810607</v>
+        <v>0.1144877299666404</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>435824</v>
       </c>
       <c r="G96">
-        <v>0.1210180933322808</v>
+        <v>0.1165642728175271</v>
       </c>
       <c r="H96">
-        <v>0.1198618531227111</v>
+        <v>0.1169430963695049</v>
       </c>
       <c r="I96">
-        <v>0.1190789572894573</v>
+        <v>0.1176632091403007</v>
       </c>
       <c r="L96">
-        <v>54.83581236572509</v>
+        <v>36.90149465566465</v>
       </c>
       <c r="M96">
-        <v>55.54589731478376</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
+        <v>37.82053075965516</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
       <c r="A97" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B97">
-        <v>0.1221895143389701</v>
+        <v>0.1144921407103538</v>
       </c>
       <c r="C97">
-        <v>0.1230193823575973</v>
+        <v>0.1147003248333931</v>
       </c>
       <c r="D97">
-        <v>0.1183961033821106</v>
+        <v>0.1122690513730049</v>
       </c>
       <c r="E97">
-        <v>0.1207046434283256</v>
+        <v>0.1123241335153579</v>
       </c>
       <c r="F97">
-        <v>6731424</v>
+        <v>4617424</v>
       </c>
       <c r="G97">
-        <v>0.1209895978864667</v>
+        <v>0.116178805608239</v>
       </c>
       <c r="H97">
-        <v>0.1200284615159034</v>
+        <v>0.1166405908763408</v>
       </c>
       <c r="I97">
-        <v>0.1191683858633041</v>
+        <v>0.1173939153552055</v>
       </c>
       <c r="L97">
-        <v>46.58525273999651</v>
+        <v>27.69435624878858</v>
       </c>
       <c r="M97">
-        <v>50.00587704650755</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
+        <v>31.26331705557568</v>
+      </c>
+      <c r="N97" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
       <c r="A98" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B98">
-        <v>0.1206931248307228</v>
+        <v>0.1123038455843925</v>
       </c>
       <c r="C98">
-        <v>0.1213691234588623</v>
+        <v>0.1129441037774086</v>
       </c>
       <c r="D98">
-        <v>0.1171711757779121</v>
+        <v>0.1092228516936302</v>
       </c>
       <c r="E98">
-        <v>0.1190749704837799</v>
+        <v>0.1129152476787567</v>
       </c>
       <c r="F98">
-        <v>11964208</v>
+        <v>7006032</v>
       </c>
       <c r="G98">
-        <v>0.1208155408498588</v>
+        <v>0.1158821185237406</v>
       </c>
       <c r="H98">
-        <v>0.1202173683792352</v>
+        <v>0.1163485642522573</v>
       </c>
       <c r="I98">
-        <v>0.1192964563767115</v>
+        <v>0.1171830723683039</v>
       </c>
       <c r="L98">
-        <v>39.43236836504805</v>
+        <v>32.84439622373026</v>
       </c>
       <c r="M98">
-        <v>44.84402736193581</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
+        <v>34.59951986378848</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
       <c r="A99" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B99">
-        <v>0.1190756261348724</v>
+        <v>0.1129198670387268</v>
       </c>
       <c r="C99">
-        <v>0.1193698123097419</v>
+        <v>0.1142436861991882</v>
       </c>
       <c r="D99">
-        <v>0.117891289293766</v>
+        <v>0.1129198670387268</v>
       </c>
       <c r="E99">
-        <v>0.1190303638577461</v>
+        <v>0.1139048039913177</v>
       </c>
       <c r="F99">
-        <v>1077696</v>
+        <v>0</v>
       </c>
       <c r="G99">
-        <v>0.120653252032394</v>
+        <v>0.1157023626571567</v>
       </c>
       <c r="H99">
-        <v>0.1203974276781082</v>
+        <v>0.1161253660917282</v>
       </c>
       <c r="I99">
-        <v>0.1194362868865331</v>
+        <v>0.1170418130854765</v>
       </c>
       <c r="L99">
-        <v>39.24680659094548</v>
+        <v>40.78722964116371</v>
       </c>
       <c r="M99">
-        <v>44.70799160778125</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
+        <v>39.86173499767304</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
       <c r="A100" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B100">
-        <v>0.1190321668982505</v>
+        <v>0.1139088943600654</v>
       </c>
       <c r="C100">
-        <v>0.1202957183122634</v>
+        <v>0.1140625774860382</v>
       </c>
       <c r="D100">
-        <v>0.1189596876502037</v>
+        <v>0.1131224185228347</v>
       </c>
       <c r="E100">
-        <v>0.1200476288795471</v>
+        <v>0.1138895526528358</v>
       </c>
       <c r="F100">
         <v>0</v>
       </c>
       <c r="G100">
-        <v>0.1205981953821352</v>
+        <v>0.115537561747673</v>
       </c>
       <c r="H100">
-        <v>0.1205833256244659</v>
+        <v>0.1159134153276682</v>
       </c>
       <c r="I100">
-        <v>0.1195904935399691</v>
+        <v>0.1168421198924382</v>
       </c>
       <c r="L100">
-        <v>45.79151339757082</v>
+        <v>40.70375632741705</v>
       </c>
       <c r="M100">
-        <v>48.54173482191459</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
+        <v>39.80857115283235</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
       <c r="A101" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B101">
-        <v>0.1200476288795471</v>
+        <v>0.1138985753059387</v>
       </c>
       <c r="C101">
-        <v>0.1203067153692245</v>
+        <v>0.1143475547432899</v>
       </c>
       <c r="D101">
-        <v>0.1193988919258117</v>
+        <v>0.1137431114912033</v>
       </c>
       <c r="E101">
-        <v>0.1196886748075485</v>
+        <v>0.1140392795205116</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>940088</v>
       </c>
       <c r="G101">
-        <v>0.1205155116935364</v>
+        <v>0.1154013542724765</v>
       </c>
       <c r="H101">
-        <v>0.1207406986504793</v>
+        <v>0.1156880613416433</v>
       </c>
       <c r="I101">
-        <v>0.1196865034600098</v>
+        <v>0.1166573668519656</v>
       </c>
       <c r="L101">
-        <v>43.91359228296757</v>
+        <v>42.01440964589776</v>
       </c>
       <c r="M101">
-        <v>47.29558373386152</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13">
+        <v>40.645503345533</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
       <c r="A102" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B102">
-        <v>0.119708776473999</v>
+        <v>0.1140357032418251</v>
       </c>
       <c r="C102">
-        <v>0.1199796944856643</v>
+        <v>0.1140921860933303</v>
       </c>
       <c r="D102">
-        <v>0.1190455332398414</v>
+        <v>0.1132094338536262</v>
       </c>
       <c r="E102">
-        <v>0.1198095679283142</v>
+        <v>0.1140658557415008</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>471008</v>
       </c>
       <c r="G102">
-        <v>0.1204513349876071</v>
+        <v>0.115279945315115</v>
       </c>
       <c r="H102">
-        <v>0.1209493547677993</v>
+        <v>0.1154571272432804</v>
       </c>
       <c r="I102">
-        <v>0.1197646458943684</v>
+        <v>0.1164724849164486</v>
       </c>
       <c r="L102">
-        <v>44.77175339446917</v>
+        <v>42.26921825501722</v>
       </c>
       <c r="M102">
-        <v>47.78179468543532</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13">
+        <v>40.8028417168812</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
       <c r="A103" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B103">
-        <v>0.1198095679283142</v>
+        <v>0.1140687465667724</v>
       </c>
       <c r="C103">
-        <v>0.1204300448298454</v>
+        <v>0.1144819259643554</v>
       </c>
       <c r="D103">
-        <v>0.1193535551428794</v>
+        <v>0.113992691040039</v>
       </c>
       <c r="E103">
-        <v>0.1202978044748306</v>
+        <v>0.114227294921875</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>643304</v>
       </c>
       <c r="G103">
-        <v>0.1204373776682638</v>
+        <v>0.1151842498248205</v>
       </c>
       <c r="H103">
-        <v>0.121163372322917</v>
+        <v>0.1152980744838714</v>
       </c>
       <c r="I103">
-        <v>0.1198088506857554</v>
+        <v>0.1163478508591652</v>
       </c>
       <c r="L103">
-        <v>48.36151738119455</v>
+        <v>43.95235583566711</v>
       </c>
       <c r="M103">
-        <v>49.79611456440675</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13">
+        <v>41.81189851478012</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
       <c r="A104" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B104">
-        <v>0.1202755719423294</v>
+        <v>0.1142192333936691</v>
       </c>
       <c r="C104">
-        <v>0.1204619631171226</v>
+        <v>0.1146731749176979</v>
       </c>
       <c r="D104">
-        <v>0.1199865564703941</v>
+        <v>0.1141423061490058</v>
       </c>
       <c r="E104">
-        <v>0.1201758831739425</v>
+        <v>0.1143966168165206</v>
       </c>
       <c r="F104">
         <v>0</v>
       </c>
       <c r="G104">
-        <v>0.1204136054415073</v>
+        <v>0.115112646824066</v>
       </c>
       <c r="H104">
-        <v>0.1213753912597894</v>
+        <v>0.1151388030499219</v>
       </c>
       <c r="I104">
-        <v>0.1198276708523432</v>
+        <v>0.1161875704924265</v>
       </c>
       <c r="L104">
-        <v>47.49426081026974</v>
+        <v>45.8163192346417</v>
       </c>
       <c r="M104">
-        <v>49.28484041120927</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13">
+        <v>42.91104532290909</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
       <c r="A105" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B105">
-        <v>0.1201797798275947</v>
+        <v>0.1143960505723953</v>
       </c>
       <c r="C105">
-        <v>0.1201797798275947</v>
+        <v>0.115454077720642</v>
       </c>
       <c r="D105">
-        <v>0.1192132532596588</v>
+        <v>0.1143579110503196</v>
       </c>
       <c r="E105">
-        <v>0.1193515360355377</v>
+        <v>0.1153637617826461</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>596968</v>
       </c>
       <c r="G105">
-        <v>0.1203170536773282</v>
+        <v>0.1151354754566641</v>
       </c>
       <c r="H105">
-        <v>0.1215060625225305</v>
+        <v>0.1150297213345766</v>
       </c>
       <c r="I105">
-        <v>0.1198315933346748</v>
+        <v>0.1160930881897608</v>
       </c>
       <c r="L105">
-        <v>41.79342292313756</v>
+        <v>55.35672856035443</v>
       </c>
       <c r="M105">
-        <v>45.85656921056724</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13">
+        <v>48.85392535417909</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
       <c r="A106" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B106">
-        <v>0.1193869784474372</v>
+        <v>0.1153799891471862</v>
       </c>
       <c r="C106">
-        <v>0.1196964755654335</v>
+        <v>0.1155108958482742</v>
       </c>
       <c r="D106">
-        <v>0.1185759902000427</v>
+        <v>0.1152084469795227</v>
       </c>
       <c r="E106">
-        <v>0.1196536570787429</v>
+        <v>0.115453116595745</v>
       </c>
       <c r="F106">
-        <v>198732</v>
+        <v>0</v>
       </c>
       <c r="G106">
-        <v>0.1202567448956386</v>
+        <v>0.1151643519238533</v>
       </c>
       <c r="H106">
-        <v>0.1214605182409286</v>
+        <v>0.1148578070104122</v>
       </c>
       <c r="I106">
-        <v>0.1198357264200846</v>
+        <v>0.1159813863535722</v>
       </c>
       <c r="L106">
-        <v>44.53824699787415</v>
+        <v>56.15906625678946</v>
       </c>
       <c r="M106">
-        <v>47.30334226373453</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13">
+        <v>49.37824141243916</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
       <c r="A107" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B107">
-        <v>0.119649089872837</v>
+        <v>0.1154536008834838</v>
       </c>
       <c r="C107">
-        <v>0.1203563064336776</v>
+        <v>0.1161207258701324</v>
       </c>
       <c r="D107">
-        <v>0.119649089872837</v>
+        <v>0.11531613022089</v>
       </c>
       <c r="E107">
-        <v>0.1199663057923317</v>
+        <v>0.1160795018076896</v>
       </c>
       <c r="F107">
         <v>0</v>
       </c>
       <c r="G107">
-        <v>0.1202303413407926</v>
+        <v>0.1152475473678384</v>
       </c>
       <c r="H107">
-        <v>0.1213607273995876</v>
+        <v>0.1147257883101701</v>
       </c>
       <c r="I107">
-        <v>0.1199221874276797</v>
+        <v>0.1159048949678738</v>
       </c>
       <c r="L107">
-        <v>47.4246238626658</v>
+        <v>61.60148201971688</v>
       </c>
       <c r="M107">
-        <v>48.82723322297375</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13">
+        <v>53.01448579829511</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
       <c r="A108" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B108">
-        <v>0.1199731603264808</v>
+        <v>0.1160792857408523</v>
       </c>
       <c r="C108">
-        <v>0.1204199641942977</v>
+        <v>0.1161048933863639</v>
       </c>
       <c r="D108">
-        <v>0.1196185424923896</v>
+        <v>0.1154431626200676</v>
       </c>
       <c r="E108">
-        <v>0.1204029470682144</v>
+        <v>0.1160127073526382</v>
       </c>
       <c r="F108">
-        <v>9556</v>
+        <v>0</v>
       </c>
       <c r="G108">
-        <v>0.1202460327705582</v>
+        <v>0.1153171073664566</v>
       </c>
       <c r="H108">
-        <v>0.1212853591889143</v>
+        <v>0.1146600037813186</v>
       </c>
       <c r="I108">
-        <v>0.1200923912227153</v>
+        <v>0.1158134592076142</v>
       </c>
       <c r="L108">
-        <v>51.3986307127528</v>
+        <v>60.69755256612459</v>
       </c>
       <c r="M108">
-        <v>50.96014467617002</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13">
+        <v>52.5807490668468</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
       <c r="A109" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B109">
-        <v>0.1203977614641189</v>
+        <v>0.1160185858607292</v>
       </c>
       <c r="C109">
-        <v>0.120690993964672</v>
+        <v>0.1166044175624847</v>
       </c>
       <c r="D109">
-        <v>0.1191761791706085</v>
+        <v>0.1160185858607292</v>
       </c>
       <c r="E109">
-        <v>0.1192405372858047</v>
+        <v>0.1160589531064033</v>
       </c>
       <c r="F109">
-        <v>4948296</v>
+        <v>281708</v>
       </c>
       <c r="G109">
-        <v>0.120154624090126</v>
+        <v>0.1153845478882699</v>
       </c>
       <c r="H109">
-        <v>0.1210124529898166</v>
+        <v>0.1145734254270792</v>
       </c>
       <c r="I109">
-        <v>0.1202194365362326</v>
+        <v>0.115736465404431</v>
       </c>
       <c r="L109">
-        <v>41.9109382727106</v>
+        <v>61.14168381267366</v>
       </c>
       <c r="M109">
-        <v>45.52061667644413</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13">
+        <v>52.86826453556464</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
       <c r="A110" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B110">
-        <v>0.1192611977458</v>
+        <v>0.1160359978675842</v>
       </c>
       <c r="C110">
-        <v>0.1205301880836486</v>
+        <v>0.1165993511676788</v>
       </c>
       <c r="D110">
-        <v>0.1180374026298523</v>
+        <v>0.115940049290657</v>
       </c>
       <c r="E110">
-        <v>0.118142582476139</v>
+        <v>0.1163091361522674</v>
       </c>
       <c r="F110">
-        <v>7573504</v>
+        <v>651368</v>
       </c>
       <c r="G110">
-        <v>0.1199717112161272</v>
+        <v>0.1154686013668151</v>
       </c>
       <c r="H110">
-        <v>0.1207847159355878</v>
+        <v>0.1145583678036928</v>
       </c>
       <c r="I110">
-        <v>0.1202798669536908</v>
+        <v>0.115675817678372</v>
       </c>
       <c r="L110">
-        <v>35.0382163766939</v>
+        <v>63.64219027481078</v>
       </c>
       <c r="M110">
-        <v>41.06218132644462</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13">
+        <v>54.47636849666229</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
       <c r="A111" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B111">
-        <v>0.1181239113211631</v>
+        <v>0.1163145825266838</v>
       </c>
       <c r="C111">
-        <v>0.1200620383024215</v>
+        <v>0.116385817527771</v>
       </c>
       <c r="D111">
-        <v>0.1181061938405036</v>
+        <v>0.1155007928609848</v>
       </c>
       <c r="E111">
-        <v>0.1198803484439849</v>
+        <v>0.1155170947313308</v>
       </c>
       <c r="F111">
-        <v>2405024</v>
+        <v>1170832</v>
       </c>
       <c r="G111">
-        <v>0.1199634055095688</v>
+        <v>0.1154730098544984</v>
       </c>
       <c r="H111">
-        <v>0.1205964863300323</v>
+        <v>0.1145030800253152</v>
       </c>
       <c r="I111">
-        <v>0.1203911714255809</v>
+        <v>0.1155748421947161</v>
       </c>
       <c r="L111">
-        <v>49.71940294653279</v>
+        <v>51.77591703836475</v>
       </c>
       <c r="M111">
-        <v>49.4937930028823</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13">
+        <v>48.79971157787893</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
       <c r="A112" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B112">
-        <v>0.1198796406388282</v>
+        <v>0.1155272424221038</v>
       </c>
       <c r="C112">
-        <v>0.1207606717944145</v>
+        <v>0.1159515008330345</v>
       </c>
       <c r="D112">
-        <v>0.1192024424672126</v>
+        <v>0.1143751740455627</v>
       </c>
       <c r="E112">
-        <v>0.1195818707346916</v>
+        <v>0.1146029904484748</v>
       </c>
       <c r="F112">
-        <v>1527944</v>
+        <v>5088552</v>
       </c>
       <c r="G112">
-        <v>0.1199287205300345</v>
+        <v>0.1153939171812235</v>
       </c>
       <c r="H112">
-        <v>0.1203949876129627</v>
+        <v>0.114563151448965</v>
       </c>
       <c r="I112">
-        <v>0.1205226855973402</v>
+        <v>0.1154387906193733</v>
       </c>
       <c r="L112">
-        <v>47.63903887067984</v>
+        <v>41.68464889278983</v>
       </c>
       <c r="M112">
-        <v>48.21785456861453</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13">
+        <v>43.2041634915192</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
       <c r="A113" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B113">
-        <v>0.1195811033248901</v>
+        <v>0.1146120056509971</v>
       </c>
       <c r="C113">
-        <v>0.1199680417776107</v>
+        <v>0.1146608889102935</v>
       </c>
       <c r="D113">
-        <v>0.1192807257175445</v>
+        <v>0.1139665767550468</v>
       </c>
       <c r="E113">
-        <v>0.1196123138070106</v>
+        <v>0.1140619292855262</v>
       </c>
       <c r="F113">
-        <v>1390664</v>
+        <v>3725548</v>
       </c>
       <c r="G113">
-        <v>0.1198999562824869</v>
+        <v>0.1152728273725237</v>
       </c>
       <c r="H113">
-        <v>0.1202066142112016</v>
+        <v>0.1145573940128087</v>
       </c>
       <c r="I113">
-        <v>0.1206425142784913</v>
+        <v>0.1153272432585557</v>
       </c>
       <c r="L113">
-        <v>47.88922892368316</v>
+        <v>36.89612319166515</v>
       </c>
       <c r="M113">
-        <v>48.36406967608409</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13">
+        <v>40.2614366782274</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
       <c r="A114" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B114">
-        <v>0.1196212992072105</v>
+        <v>0.1140597760677337</v>
       </c>
       <c r="C114">
-        <v>0.1197202280163765</v>
+        <v>0.1140828281641006</v>
       </c>
       <c r="D114">
-        <v>0.1179479211568832</v>
+        <v>0.1132581979036331</v>
       </c>
       <c r="E114">
-        <v>0.117966316640377</v>
+        <v>0.113732673227787</v>
       </c>
       <c r="F114">
-        <v>1520552</v>
+        <v>3673712</v>
       </c>
       <c r="G114">
-        <v>0.1197241708604769</v>
+        <v>0.1151328133593658</v>
       </c>
       <c r="H114">
-        <v>0.1199514359235763</v>
+        <v>0.1145739797502755</v>
       </c>
       <c r="I114">
-        <v>0.1207102080186208</v>
+        <v>0.1151989308496316</v>
       </c>
       <c r="L114">
-        <v>37.10502129263355</v>
+        <v>34.20602450649495</v>
       </c>
       <c r="M114">
-        <v>41.53513279902104</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13">
+        <v>38.54107308369053</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
       <c r="A115" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B115">
-        <v>0.117969311773777</v>
+        <v>0.1137131229043006</v>
       </c>
       <c r="C115">
-        <v>0.1195288896560669</v>
+        <v>0.1143246218562126</v>
       </c>
       <c r="D115">
-        <v>0.1179428175091743</v>
+        <v>0.1127964779734611</v>
       </c>
       <c r="E115">
-        <v>0.1192050278186798</v>
+        <v>0.1136194169521331</v>
       </c>
       <c r="F115">
-        <v>53752</v>
+        <v>3809304</v>
       </c>
       <c r="G115">
-        <v>0.1196769760384954</v>
+        <v>0.1149952318677992</v>
       </c>
       <c r="H115">
-        <v>0.1197029162198305</v>
+        <v>0.1145530898123979</v>
       </c>
       <c r="I115">
-        <v>0.1207924385865529</v>
+        <v>0.1150680648783842</v>
       </c>
       <c r="L115">
-        <v>47.17606814404172</v>
+        <v>33.2674095172167</v>
       </c>
       <c r="M115">
-        <v>47.53852124546275</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13">
+        <v>37.9405253924737</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
       <c r="A116" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B116">
-        <v>0.1192050278186798</v>
+        <v>0.1136455535888671</v>
       </c>
       <c r="C116">
-        <v>0.1193863302469253</v>
+        <v>0.1142715737223625</v>
       </c>
       <c r="D116">
-        <v>0.1180921494960784</v>
+        <v>0.1121360510587692</v>
       </c>
       <c r="E116">
-        <v>0.1181982308626174</v>
+        <v>0.1127212941646575</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>7664860</v>
       </c>
       <c r="G116">
-        <v>0.1195425446588701</v>
+        <v>0.1147885102584227</v>
       </c>
       <c r="H116">
-        <v>0.1195015605539083</v>
+        <v>0.1144647680222988</v>
       </c>
       <c r="I116">
-        <v>0.1207135615249474</v>
+        <v>0.1148623945812384</v>
       </c>
       <c r="L116">
-        <v>41.15098267523017</v>
+        <v>26.72511092786127</v>
       </c>
       <c r="M116">
-        <v>43.61816619624907</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13">
+        <v>33.48469936241222</v>
+      </c>
+      <c r="N116" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
       <c r="A117" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B117">
-        <v>0.1181924268603324</v>
+        <v>0.1127596199512481</v>
       </c>
       <c r="C117">
-        <v>0.1188218295574188</v>
+        <v>0.113912358880043</v>
       </c>
       <c r="D117">
-        <v>0.1181461587548255</v>
+        <v>0.1124998852610588</v>
       </c>
       <c r="E117">
-        <v>0.1188041716814041</v>
+        <v>0.1125305220484733</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>2692080</v>
       </c>
       <c r="G117">
-        <v>0.1194754198427368</v>
+        <v>0.1145832386029727</v>
       </c>
       <c r="H117">
-        <v>0.1194065369665622</v>
+        <v>0.1144750874489545</v>
       </c>
       <c r="I117">
-        <v>0.1206082964936892</v>
+        <v>0.1146560827891031</v>
       </c>
       <c r="L117">
-        <v>45.83482690432032</v>
+        <v>25.52556087351174</v>
       </c>
       <c r="M117">
-        <v>46.47890196698825</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13">
+        <v>32.60866376620883</v>
+      </c>
+      <c r="N117" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B118">
-        <v>0.1188103407621383</v>
+        <v>0.1125375553965568</v>
       </c>
       <c r="C118">
-        <v>0.1189367696642875</v>
+        <v>0.1141265779733657</v>
       </c>
       <c r="D118">
-        <v>0.1181697100400924</v>
+        <v>0.1125375553965568</v>
       </c>
       <c r="E118">
-        <v>0.1183742433786392</v>
+        <v>0.1136817708611488</v>
       </c>
       <c r="F118">
         <v>0</v>
       </c>
       <c r="G118">
-        <v>0.1193753128914552</v>
+        <v>0.1145012869900797</v>
       </c>
       <c r="H118">
-        <v>0.1193715006113052</v>
+        <v>0.1145134136080741</v>
       </c>
       <c r="I118">
-        <v>0.1204904275635878</v>
+        <v>0.1145345285534858</v>
       </c>
       <c r="L118">
-        <v>43.09686585640424</v>
+        <v>42.91936191329753</v>
       </c>
       <c r="M118">
-        <v>44.74419640016454</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13">
+        <v>42.40182787130473</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
       <c r="A119" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B119">
-        <v>0.1183768585324287</v>
+        <v>0.1136760339140892</v>
       </c>
       <c r="C119">
-        <v>0.118917167186737</v>
+        <v>0.1140120103955268</v>
       </c>
       <c r="D119">
-        <v>0.118136778473854</v>
+        <v>0.1125526577234268</v>
       </c>
       <c r="E119">
-        <v>0.1187557801604271</v>
+        <v>0.1125745698809623</v>
       </c>
       <c r="F119">
-        <v>2666680</v>
+        <v>1948840</v>
       </c>
       <c r="G119">
-        <v>0.119318991734089</v>
+        <v>0.1143261308892508</v>
       </c>
       <c r="H119">
-        <v>0.1193577714264392</v>
+        <v>0.1144469019025564</v>
       </c>
       <c r="I119">
-        <v>0.1202923315266768</v>
+        <v>0.1143606635431448</v>
       </c>
       <c r="L119">
-        <v>46.29946915696847</v>
+        <v>34.26161515931143</v>
       </c>
       <c r="M119">
-        <v>46.64725321953288</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13">
+        <v>36.85485967256383</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
       <c r="A120" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B120">
-        <v>0.1187601909041404</v>
+        <v>0.1125967428088188</v>
       </c>
       <c r="C120">
-        <v>0.1189709454774856</v>
+        <v>0.1128187775611877</v>
       </c>
       <c r="D120">
-        <v>0.1167691797018051</v>
+        <v>0.1080700978636741</v>
       </c>
       <c r="E120">
-        <v>0.1183687672019004</v>
+        <v>0.1082017496228218</v>
       </c>
       <c r="F120">
-        <v>2642376</v>
+        <v>9868352</v>
       </c>
       <c r="G120">
-        <v>0.1192326076857082</v>
+        <v>0.1137693689559391</v>
       </c>
       <c r="H120">
-        <v>0.1192738283425569</v>
+        <v>0.1141625117510557</v>
       </c>
       <c r="I120">
-        <v>0.1201480463147163</v>
+        <v>0.1140803789099057</v>
       </c>
       <c r="L120">
-        <v>43.5053117884002</v>
+        <v>18.06789034485289</v>
       </c>
       <c r="M120">
-        <v>44.95589993990743</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13">
+        <v>23.67948063402521</v>
+      </c>
+      <c r="N120" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
       <c r="A121" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B121">
-        <v>0.1183656752109527</v>
+        <v>0.1082384064793586</v>
       </c>
       <c r="C121">
-        <v>0.1185943707823753</v>
+        <v>0.1096987724304199</v>
       </c>
       <c r="D121">
-        <v>0.1179435923695564</v>
+        <v>0.1071236655116081</v>
       </c>
       <c r="E121">
-        <v>0.1181285679340362</v>
+        <v>0.1093533337116241</v>
       </c>
       <c r="F121">
-        <v>805748</v>
+        <v>6348584</v>
       </c>
       <c r="G121">
-        <v>0.1191322404355562</v>
+        <v>0.1133679112064559</v>
       </c>
       <c r="H121">
-        <v>0.1191958229988813</v>
+        <v>0.1139282144606113</v>
       </c>
       <c r="I121">
-        <v>0.1199641672273477</v>
+        <v>0.1138380616903304</v>
       </c>
       <c r="L121">
-        <v>41.74621144328401</v>
+        <v>28.13170878284025</v>
       </c>
       <c r="M121">
-        <v>43.89218248456843</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13">
+        <v>30.70515470445837</v>
+      </c>
+      <c r="N121" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
       <c r="A122" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B122">
-        <v>0.1181186586618423</v>
+        <v>0.1093480885028839</v>
       </c>
       <c r="C122">
-        <v>0.119223840534687</v>
+        <v>0.1099613085389137</v>
       </c>
       <c r="D122">
-        <v>0.1181186586618423</v>
+        <v>0.1085845157504081</v>
       </c>
       <c r="E122">
-        <v>0.1185463592410087</v>
+        <v>0.1095947995781898</v>
       </c>
       <c r="F122">
-        <v>231060</v>
+        <v>1562744</v>
       </c>
       <c r="G122">
-        <v>0.1190789785087792</v>
+        <v>0.1130249010584317</v>
       </c>
       <c r="H122">
-        <v>0.119132662564516</v>
+        <v>0.1137046616524457</v>
       </c>
       <c r="I122">
-        <v>0.1197953176995118</v>
+        <v>0.1137111696104208</v>
       </c>
       <c r="L122">
-        <v>46.01734189562546</v>
+        <v>30.15544464138701</v>
       </c>
       <c r="M122">
-        <v>46.27341198546974</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13">
+        <v>32.11625298676822</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
       <c r="A123" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B123">
-        <v>0.1185304149985313</v>
+        <v>0.1095934212207794</v>
       </c>
       <c r="C123">
-        <v>0.1192448511719703</v>
+        <v>0.1115874350070953</v>
       </c>
       <c r="D123">
-        <v>0.1185304149985313</v>
+        <v>0.1091353744268417</v>
       </c>
       <c r="E123">
-        <v>0.1186845377087593</v>
+        <v>0.1115834340453147</v>
       </c>
       <c r="F123">
-        <v>555868</v>
+        <v>695768</v>
       </c>
       <c r="G123">
-        <v>0.1190431202542319</v>
+        <v>0.1128938586026938</v>
       </c>
       <c r="H123">
-        <v>0.1190519992262125</v>
+        <v>0.1135724686086177</v>
       </c>
       <c r="I123">
-        <v>0.1196388095617294</v>
+        <v>0.1136247148116429</v>
       </c>
       <c r="L123">
-        <v>47.45090687241333</v>
+        <v>44.60722539600906</v>
       </c>
       <c r="M123">
-        <v>47.07346179087551</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13">
+        <v>42.50109321283842</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
       <c r="A124" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B124">
-        <v>0.1186719834804534</v>
+        <v>0.1115710958838462</v>
       </c>
       <c r="C124">
-        <v>0.118704617023468</v>
+        <v>0.111713595688343</v>
       </c>
       <c r="D124">
-        <v>0.1173640787601471</v>
+        <v>0.1106089055538177</v>
       </c>
       <c r="E124">
-        <v>0.117408350110054</v>
+        <v>0.1108645126223564</v>
       </c>
       <c r="F124">
-        <v>754544</v>
+        <v>1434480</v>
       </c>
       <c r="G124">
-        <v>0.1188945047865794</v>
+        <v>0.1127093726044813</v>
       </c>
       <c r="H124">
-        <v>0.118913622573018</v>
+        <v>0.1133958633989095</v>
       </c>
       <c r="I124">
-        <v>0.1194500918189684</v>
+        <v>0.1135401666164398</v>
       </c>
       <c r="L124">
-        <v>37.18944040323616</v>
+        <v>41.14478291124255</v>
       </c>
       <c r="M124">
-        <v>41.00080206732846</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13">
+        <v>40.11207070569758</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
       <c r="A125" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B125">
-        <v>0.1174196228384971</v>
+        <v>0.1108702272176742</v>
       </c>
       <c r="C125">
-        <v>0.1179588735103607</v>
+        <v>0.1122538149356842</v>
       </c>
       <c r="D125">
-        <v>0.1173834502696991</v>
+        <v>0.1108702272176742</v>
       </c>
       <c r="E125">
-        <v>0.1175820454955101</v>
+        <v>0.1119694039225578</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>869144</v>
       </c>
       <c r="G125">
-        <v>0.1187751903055731</v>
+        <v>0.1126421027243064</v>
       </c>
       <c r="H125">
-        <v>0.1188251480460167</v>
+        <v>0.1132261455059051</v>
       </c>
       <c r="I125">
-        <v>0.1192303126056989</v>
+        <v>0.1134712395568688</v>
       </c>
       <c r="L125">
-        <v>39.20259101661819</v>
+        <v>48.10882678328313</v>
       </c>
       <c r="M125">
-        <v>42.09569612283094</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13">
+        <v>45.20946784478081</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
       <c r="A126" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B126">
-        <v>0.1175806671380996</v>
+        <v>0.1119723543524742</v>
       </c>
       <c r="C126">
-        <v>0.1183563321828842</v>
+        <v>0.1122501865029335</v>
       </c>
       <c r="D126">
-        <v>0.1174404248595237</v>
+        <v>0.111440397799015</v>
       </c>
       <c r="E126">
-        <v>0.1175453960895538</v>
+        <v>0.1120068356394767</v>
       </c>
       <c r="F126">
-        <v>269200</v>
+        <v>1494032</v>
       </c>
       <c r="G126">
-        <v>0.1186633908313895</v>
+        <v>0.1125843511711401</v>
       </c>
       <c r="H126">
-        <v>0.1187197349965572</v>
+        <v>0.1130538314580917</v>
       </c>
       <c r="I126">
-        <v>0.119074314335982</v>
+        <v>0.1133885430792967</v>
       </c>
       <c r="L126">
-        <v>38.90658678554528</v>
+        <v>48.34179066634653</v>
       </c>
       <c r="M126">
-        <v>41.918929803521</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13">
+        <v>45.37908626424191</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
       <c r="A127" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B127">
-        <v>0.1175403445959091</v>
+        <v>0.1120068430900573</v>
       </c>
       <c r="C127">
-        <v>0.1190551295876503</v>
+        <v>0.1122603639960289</v>
       </c>
       <c r="D127">
-        <v>0.1171652600169181</v>
+        <v>0.1110441833734512</v>
       </c>
       <c r="E127">
-        <v>0.1188914030790329</v>
+        <v>0.1115330681204795</v>
       </c>
       <c r="F127">
-        <v>2777820</v>
+        <v>0</v>
       </c>
       <c r="G127">
-        <v>0.1186841192175389</v>
+        <v>0.1124887799847164</v>
       </c>
       <c r="H127">
-        <v>0.1186659898608923</v>
+        <v>0.1128265097737312</v>
       </c>
       <c r="I127">
-        <v>0.1190138729910055</v>
+        <v>0.1133621742328007</v>
       </c>
       <c r="L127">
-        <v>53.43391558502216</v>
+        <v>45.43720133705515</v>
       </c>
       <c r="M127">
-        <v>50.19133475543003</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13">
+        <v>43.54177052122703</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
       <c r="A128" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B128">
-        <v>0.1189173310995101</v>
+        <v>0.1115326955914497</v>
       </c>
       <c r="C128">
-        <v>0.1191132664680481</v>
+        <v>0.1121337935328483</v>
       </c>
       <c r="D128">
-        <v>0.1182990074157714</v>
+        <v>0.1110698878765106</v>
       </c>
       <c r="E128">
-        <v>0.1187198758125305</v>
+        <v>0.1117409765720367</v>
       </c>
       <c r="F128">
-        <v>837432</v>
+        <v>28808</v>
       </c>
       <c r="G128">
-        <v>0.1186873698170836</v>
+        <v>0.112420797856291</v>
       </c>
       <c r="H128">
-        <v>0.1185818362981081</v>
+        <v>0.1126129232347011</v>
       </c>
       <c r="I128">
-        <v>0.1190020365019639</v>
+        <v>0.1133230318625767</v>
       </c>
       <c r="L128">
-        <v>51.67239256987809</v>
+        <v>47.00909345824405</v>
       </c>
       <c r="M128">
-        <v>49.22908138111203</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14">
+        <v>44.60179354569042</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
       <c r="A129" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B129">
-        <v>0.118746630847454</v>
+        <v>0.1117515191435813</v>
       </c>
       <c r="C129">
-        <v>0.1187729984521865</v>
+        <v>0.1126887649297714</v>
       </c>
       <c r="D129">
-        <v>0.1172573417425155</v>
+        <v>0.1115313917398452</v>
       </c>
       <c r="E129">
-        <v>0.1173283979296684</v>
+        <v>0.1126413196325302</v>
       </c>
       <c r="F129">
-        <v>1039140</v>
+        <v>0</v>
       </c>
       <c r="G129">
-        <v>0.1185638269182276</v>
+        <v>0.1124408452904945</v>
       </c>
       <c r="H129">
-        <v>0.1184862293303013</v>
+        <v>0.1124420415610074</v>
       </c>
       <c r="I129">
-        <v>0.1189453043043613</v>
+        <v>0.1132809157172838</v>
       </c>
       <c r="L129">
-        <v>39.72166323520963</v>
+        <v>53.53104285840394</v>
       </c>
       <c r="M129">
-        <v>42.16660292164833</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14">
+        <v>49.0619578098387</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
       <c r="A130" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B130">
-        <v>0.1173283979296684</v>
+        <v>0.1126397028565406</v>
       </c>
       <c r="C130">
-        <v>0.1178863495588302</v>
+        <v>0.1126397028565406</v>
       </c>
       <c r="D130">
-        <v>0.1173254251480102</v>
+        <v>0.1114682480692863</v>
       </c>
       <c r="E130">
-        <v>0.1177905201911926</v>
+        <v>0.1116199195384979</v>
       </c>
       <c r="F130">
-        <v>1228076</v>
+        <v>0</v>
       </c>
       <c r="G130">
-        <v>0.118493526306679</v>
+        <v>0.1123662156766767</v>
       </c>
       <c r="H130">
-        <v>0.1184686262160539</v>
+        <v>0.112207580730319</v>
       </c>
       <c r="I130">
-        <v>0.1188700673480828</v>
+        <v>0.1132052612801392</v>
       </c>
       <c r="L130">
-        <v>44.51608302509739</v>
+        <v>46.26397211866074</v>
       </c>
       <c r="M130">
-        <v>44.98919841188007</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14">
+        <v>44.66829171933147</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
       <c r="A131" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B131">
-        <v>0.1178040131926536</v>
+        <v>0.1116206347942352</v>
       </c>
       <c r="C131">
-        <v>0.1179385855793953</v>
+        <v>0.1118745133280754</v>
       </c>
       <c r="D131">
-        <v>0.1164335384964943</v>
+        <v>0.1113892719149589</v>
       </c>
       <c r="E131">
-        <v>0.1166102886199951</v>
+        <v>0.1118745133280754</v>
       </c>
       <c r="F131">
-        <v>921604</v>
+        <v>329016</v>
       </c>
       <c r="G131">
-        <v>0.1183223228806168</v>
+        <v>0.1123215154631675</v>
       </c>
       <c r="H131">
-        <v>0.1183051232248545</v>
+        <v>0.1120254516601562</v>
       </c>
       <c r="I131">
-        <v>0.1187674544751644</v>
+        <v>0.113133102407058</v>
       </c>
       <c r="L131">
-        <v>36.23532928580041</v>
+        <v>48.23456970485655</v>
       </c>
       <c r="M131">
-        <v>39.66480340498953</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14">
+        <v>45.96719344905462</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
       <c r="A132" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B132">
-        <v>0.1166172325611114</v>
+        <v>0.1118868589401245</v>
       </c>
       <c r="C132">
-        <v>0.1172603592276573</v>
+        <v>0.1124388724565506</v>
       </c>
       <c r="D132">
-        <v>0.1159558370709419</v>
+        <v>0.1116655617952346</v>
       </c>
       <c r="E132">
-        <v>0.1166228502988815</v>
+        <v>0.1121575981378555</v>
       </c>
       <c r="F132">
-        <v>1347832</v>
+        <v>0</v>
       </c>
       <c r="G132">
-        <v>0.1181678253731863</v>
+        <v>0.1123066138881391</v>
       </c>
       <c r="H132">
-        <v>0.1181571722030639</v>
+        <v>0.1119031820446252</v>
       </c>
       <c r="I132">
-        <v>0.1186612305541833</v>
+        <v>0.1130694938202698</v>
       </c>
       <c r="L132">
-        <v>36.37703905297064</v>
+        <v>50.50503411150893</v>
       </c>
       <c r="M132">
-        <v>39.74653860996312</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14">
+        <v>47.44451061704677</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15">
       <c r="A133" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B133">
-        <v>0.1166326180100441</v>
+        <v>0.1121482923626899</v>
       </c>
       <c r="C133">
-        <v>0.1166326180100441</v>
+        <v>0.1123984828591346</v>
       </c>
       <c r="D133">
-        <v>0.1134015619754791</v>
+        <v>0.1112353503704071</v>
       </c>
       <c r="E133">
-        <v>0.1134015619754791</v>
+        <v>0.1118495836853981</v>
       </c>
       <c r="F133">
-        <v>4778940</v>
+        <v>388280</v>
       </c>
       <c r="G133">
-        <v>0.1177345287006675</v>
+        <v>0.1122650656878899</v>
       </c>
       <c r="H133">
-        <v>0.1178466346114873</v>
+        <v>0.1117925647646188</v>
       </c>
       <c r="I133">
-        <v>0.1184313558042049</v>
+        <v>0.1129902367790539</v>
       </c>
       <c r="L133">
-        <v>22.1656890990735</v>
+        <v>47.93165177151796</v>
       </c>
       <c r="M133">
-        <v>28.92519270957292</v>
-      </c>
-      <c r="N133" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14">
+        <v>45.97170299487201</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15">
       <c r="A134" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B134">
-        <v>0.1134665980935096</v>
+        <v>0.1118567362427711</v>
       </c>
       <c r="C134">
-        <v>0.1143732517957687</v>
+        <v>0.1120176836848259</v>
       </c>
       <c r="D134">
-        <v>0.1127324923872947</v>
+        <v>0.110516183078289</v>
       </c>
       <c r="E134">
-        <v>0.1141770780086517</v>
+        <v>0.1113060340285301</v>
       </c>
       <c r="F134">
-        <v>3728240</v>
+        <v>1874408</v>
       </c>
       <c r="G134">
-        <v>0.1174111240923024</v>
+        <v>0.1121778809915845</v>
       </c>
       <c r="H134">
-        <v>0.1176571726799011</v>
+        <v>0.111671232804656</v>
       </c>
       <c r="I134">
-        <v>0.1182313956320285</v>
+        <v>0.1128872173527876</v>
       </c>
       <c r="L134">
-        <v>29.61322739438288</v>
+        <v>43.52849680147004</v>
       </c>
       <c r="M134">
-        <v>33.61139845670121</v>
-      </c>
-      <c r="N134" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14">
+        <v>43.41070240009103</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
       <c r="A135" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B135">
-        <v>0.1141795888543129</v>
+        <v>0.1113205030560493</v>
       </c>
       <c r="C135">
-        <v>0.1143767684698104</v>
+        <v>0.1120388433337211</v>
       </c>
       <c r="D135">
-        <v>0.1126063466072082</v>
+        <v>0.1111781895160675</v>
       </c>
       <c r="E135">
-        <v>0.1134009584784507</v>
+        <v>0.1117753237485885</v>
       </c>
       <c r="F135">
-        <v>2725408</v>
+        <v>649108</v>
       </c>
       <c r="G135">
-        <v>0.1170465635819523</v>
+        <v>0.1121412848785849</v>
       </c>
       <c r="H135">
-        <v>0.1173669692128896</v>
+        <v>0.1115790281444788</v>
       </c>
       <c r="I135">
-        <v>0.1180330430467923</v>
+        <v>0.1127676027516524</v>
       </c>
       <c r="L135">
-        <v>26.73328175940322</v>
+        <v>48.15451028105604</v>
       </c>
       <c r="M135">
-        <v>31.38141952070654</v>
-      </c>
-      <c r="N135" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14">
+        <v>46.19751594667379</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
       <c r="A136" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B136">
-        <v>0.1134070456027984</v>
+        <v>0.1117630749940872</v>
       </c>
       <c r="C136">
-        <v>0.1144364401698112</v>
+        <v>0.1130969002842903</v>
       </c>
       <c r="D136">
-        <v>0.1134070456027984</v>
+        <v>0.111724317073822</v>
       </c>
       <c r="E136">
-        <v>0.1140372157096862</v>
+        <v>0.1130610033869743</v>
       </c>
       <c r="F136">
-        <v>1090136</v>
+        <v>4014152</v>
       </c>
       <c r="G136">
-        <v>0.1167729865026553</v>
+        <v>0.1122248956520748</v>
       </c>
       <c r="H136">
-        <v>0.1171589184552431</v>
+        <v>0.1115960136055946</v>
       </c>
       <c r="I136">
-        <v>0.1178458283344904</v>
+        <v>0.1126878656446933</v>
       </c>
       <c r="L136">
-        <v>32.76384733518477</v>
+        <v>58.60563475864426</v>
       </c>
       <c r="M136">
-        <v>35.17827085561881</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14">
+        <v>53.0230252548587</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
       <c r="A137" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B137">
-        <v>0.1140453442931175</v>
+        <v>0.1130625158548355</v>
       </c>
       <c r="C137">
-        <v>0.1146867871284484</v>
+        <v>0.1136691272258758</v>
       </c>
       <c r="D137">
-        <v>0.1138140559196472</v>
+        <v>0.1128371357917785</v>
       </c>
       <c r="E137">
-        <v>0.1144877299666404</v>
+        <v>0.112940639257431</v>
       </c>
       <c r="F137">
-        <v>435824</v>
+        <v>362196</v>
       </c>
       <c r="G137">
-        <v>0.1165652359084721</v>
+        <v>0.1122899632525617</v>
       </c>
       <c r="H137">
-        <v>0.1169430963695049</v>
+        <v>0.1116165194660425</v>
       </c>
       <c r="I137">
-        <v>0.1176632091403007</v>
+        <v>0.112583236893018</v>
       </c>
       <c r="L137">
-        <v>36.90100505204345</v>
+        <v>57.38725046274056</v>
       </c>
       <c r="M137">
-        <v>37.80257844027988</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14">
+        <v>52.35340791728992</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
       <c r="A138" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B138">
-        <v>0.1144921407103538</v>
+        <v>0.1129461154341697</v>
       </c>
       <c r="C138">
-        <v>0.1147003248333931</v>
+        <v>0.1149657666683197</v>
       </c>
       <c r="D138">
-        <v>0.1122690513730049</v>
+        <v>0.112921692430973</v>
       </c>
       <c r="E138">
-        <v>0.1123241335153579</v>
+        <v>0.1149657666683197</v>
       </c>
       <c r="F138">
-        <v>4617424</v>
+        <v>1544668</v>
       </c>
       <c r="G138">
-        <v>0.1161796811454618</v>
+        <v>0.1125332181085397</v>
       </c>
       <c r="H138">
-        <v>0.1166405908763408</v>
+        <v>0.111680719256401</v>
       </c>
       <c r="I138">
-        <v>0.1173939153552055</v>
+        <v>0.1125483388702074</v>
       </c>
       <c r="L138">
-        <v>27.69421044723158</v>
+        <v>69.42050339406899</v>
       </c>
       <c r="M138">
-        <v>31.25767554681764</v>
-      </c>
-      <c r="N138" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14">
+        <v>61.22587087791058</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
       <c r="A139" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B139">
-        <v>0.1123038455843925</v>
+        <v>0.114969365298748</v>
       </c>
       <c r="C139">
-        <v>0.1129441037774086</v>
+        <v>0.1154517233371734</v>
       </c>
       <c r="D139">
-        <v>0.1092228516936302</v>
+        <v>0.1145093888044357</v>
       </c>
       <c r="E139">
-        <v>0.1129152476787567</v>
+        <v>0.1153455227613449</v>
       </c>
       <c r="F139">
-        <v>7006032</v>
+        <v>609012</v>
       </c>
       <c r="G139">
-        <v>0.1158829144666704</v>
+        <v>0.1127888821678857</v>
       </c>
       <c r="H139">
-        <v>0.1163485642522573</v>
+        <v>0.1118192669004202</v>
       </c>
       <c r="I139">
-        <v>0.1171830723683039</v>
+        <v>0.1125245578587055</v>
       </c>
       <c r="L139">
-        <v>32.84414565871536</v>
+        <v>71.13978856557205</v>
       </c>
       <c r="M139">
-        <v>34.5896965939925</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14">
+        <v>62.63113931174516</v>
+      </c>
+      <c r="O139" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15">
       <c r="A140" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B140">
-        <v>0.1129198670387268</v>
+        <v>0.1153480112552642</v>
       </c>
       <c r="C140">
-        <v>0.1142436861991882</v>
+        <v>0.1163671091198921</v>
       </c>
       <c r="D140">
-        <v>0.1129198670387268</v>
+        <v>0.1148447170853614</v>
       </c>
       <c r="E140">
-        <v>0.1139048039913177</v>
+        <v>0.1156658455729484</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>5115996</v>
       </c>
       <c r="G140">
-        <v>0.1157030862416383</v>
+        <v>0.1130504242956186</v>
       </c>
       <c r="H140">
-        <v>0.1161253660917282</v>
+        <v>0.1121924716979265</v>
       </c>
       <c r="I140">
-        <v>0.1170418130854765</v>
+        <v>0.1125031148393949</v>
       </c>
       <c r="L140">
-        <v>40.78685212410873</v>
+        <v>72.60155869090738</v>
       </c>
       <c r="M140">
-        <v>39.84623864307125</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14">
+        <v>63.82218221637746</v>
+      </c>
+      <c r="O140" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15">
       <c r="A141" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B141">
-        <v>0.1139088943600654</v>
+        <v>0.1156718805432319</v>
       </c>
       <c r="C141">
-        <v>0.1140625774860382</v>
+        <v>0.1159306913614273</v>
       </c>
       <c r="D141">
-        <v>0.1131224185228347</v>
+        <v>0.11536405980587</v>
       </c>
       <c r="E141">
-        <v>0.1138895526528358</v>
+        <v>0.1157778799533844</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>1113192</v>
       </c>
       <c r="G141">
-        <v>0.1155382195517472</v>
+        <v>0.113298374809961</v>
       </c>
       <c r="H141">
-        <v>0.1159134153276681</v>
+        <v>0.1125136990100145</v>
       </c>
       <c r="I141">
-        <v>0.1168421198924382</v>
+        <v>0.11251180768013</v>
       </c>
       <c r="L141">
-        <v>40.70338122520283</v>
+        <v>73.13692528051327</v>
       </c>
       <c r="M141">
-        <v>39.79316064383113</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14">
+        <v>64.25134825607638</v>
+      </c>
+      <c r="O141" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15">
       <c r="A142" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B142">
-        <v>0.1138985753059387</v>
+        <v>0.115792229771614</v>
       </c>
       <c r="C142">
-        <v>0.1143475547432899</v>
+        <v>0.1164816617965698</v>
       </c>
       <c r="D142">
-        <v>0.1137431114912033</v>
+        <v>0.1154014319181442</v>
       </c>
       <c r="E142">
-        <v>0.1140392795205116</v>
+        <v>0.1164384186267852</v>
       </c>
       <c r="F142">
-        <v>940088</v>
+        <v>263220</v>
       </c>
       <c r="G142">
-        <v>0.1154019522761803</v>
+        <v>0.1135838333387632</v>
       </c>
       <c r="H142">
-        <v>0.1156880613416433</v>
+        <v>0.1128558799624443</v>
       </c>
       <c r="I142">
-        <v>0.1166573668519655</v>
+        <v>0.112572988619407</v>
       </c>
       <c r="L142">
-        <v>42.01401761885467</v>
+        <v>76.2190742191422</v>
       </c>
       <c r="M142">
-        <v>40.62929464374393</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14">
+        <v>66.75535930824229</v>
+      </c>
+      <c r="O142" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15">
       <c r="A143" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B143">
-        <v>0.1140357032418251</v>
+        <v>0.1164312735199928</v>
       </c>
       <c r="C143">
-        <v>0.1140921860933303</v>
+        <v>0.1165607869625091</v>
       </c>
       <c r="D143">
-        <v>0.1132094338536262</v>
+        <v>0.1158521100878715</v>
       </c>
       <c r="E143">
-        <v>0.1140658557415008</v>
+        <v>0.1159781888127327</v>
       </c>
       <c r="F143">
-        <v>471008</v>
+        <v>1367508</v>
       </c>
       <c r="G143">
-        <v>0.1152804889548458</v>
+        <v>0.1138015020182149</v>
       </c>
       <c r="H143">
-        <v>0.1154571272432804</v>
+        <v>0.1130756177008152</v>
       </c>
       <c r="I143">
-        <v>0.1164724849164485</v>
+        <v>0.1126368639369805</v>
       </c>
       <c r="L143">
-        <v>42.26882306990726</v>
+        <v>69.92995042595712</v>
       </c>
       <c r="M143">
-        <v>40.78648614408622</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14">
+        <v>63.42203237077874</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15">
       <c r="A144" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B144">
-        <v>0.1140687465667724</v>
+        <v>0.1159840077161789</v>
       </c>
       <c r="C144">
-        <v>0.1144819259643554</v>
+        <v>0.1164025366306305</v>
       </c>
       <c r="D144">
-        <v>0.113992691040039</v>
+        <v>0.115628644824028</v>
       </c>
       <c r="E144">
-        <v>0.114227294921875</v>
+        <v>0.1163445860147476</v>
       </c>
       <c r="F144">
-        <v>643304</v>
+        <v>0</v>
       </c>
       <c r="G144">
-        <v>0.1151847440427576</v>
+        <v>0.1140326914724452</v>
       </c>
       <c r="H144">
-        <v>0.1152980744838714</v>
+        <v>0.1133496213704347</v>
       </c>
       <c r="I144">
-        <v>0.1163478508591651</v>
+        <v>0.1127239276965459</v>
       </c>
       <c r="L144">
-        <v>43.95194087218585</v>
+        <v>71.99926194159532</v>
       </c>
       <c r="M144">
-        <v>41.79462497575999</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14">
+        <v>64.92367948794754</v>
+      </c>
+      <c r="O144" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15">
       <c r="A145" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B145">
-        <v>0.1142192333936691</v>
+        <v>0.1163337454199791</v>
       </c>
       <c r="C145">
-        <v>0.1146731749176979</v>
+        <v>0.1165207773447036</v>
       </c>
       <c r="D145">
-        <v>0.1141423061490058</v>
+        <v>0.115989089012146</v>
       </c>
       <c r="E145">
-        <v>0.1143966168165206</v>
+        <v>0.1159938722848892</v>
       </c>
       <c r="F145">
         <v>0</v>
       </c>
       <c r="G145">
-        <v>0.1151130961130996</v>
+        <v>0.1142109806372128</v>
       </c>
       <c r="H145">
-        <v>0.1151388030499219</v>
+        <v>0.1135508447885513</v>
       </c>
       <c r="I145">
-        <v>0.1161875704924265</v>
+        <v>0.1128030762076377</v>
       </c>
       <c r="L145">
-        <v>45.81588456158793</v>
+        <v>67.03189364800953</v>
       </c>
       <c r="M145">
-        <v>42.89281903616249</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14">
+        <v>62.28773559876448</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15">
       <c r="A146" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B146">
-        <v>0.1143960505723953</v>
+        <v>0.1159990653395652</v>
       </c>
       <c r="C146">
-        <v>0.115454077720642</v>
+        <v>0.1164682805538177</v>
       </c>
       <c r="D146">
-        <v>0.1143579110503196</v>
+        <v>0.1159150153398513</v>
       </c>
       <c r="E146">
-        <v>0.1153637617826461</v>
+        <v>0.1164568215608596</v>
       </c>
       <c r="F146">
-        <v>596968</v>
+        <v>0</v>
       </c>
       <c r="G146">
-        <v>0.1151358839012402</v>
+        <v>0.114415147993908</v>
       </c>
       <c r="H146">
-        <v>0.1150297213345766</v>
+        <v>0.1137733440846204</v>
       </c>
       <c r="I146">
-        <v>0.1160930881897608</v>
+        <v>0.1129275937875111</v>
       </c>
       <c r="L146">
-        <v>55.35622910624625</v>
+        <v>70.09572437151591</v>
       </c>
       <c r="M146">
-        <v>48.83139989164972</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14">
+        <v>64.3455764302791</v>
+      </c>
+      <c r="O146" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15">
       <c r="A147" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B147">
-        <v>0.1153799891471862</v>
+        <v>0.1164522171020507</v>
       </c>
       <c r="C147">
-        <v>0.1155108958482742</v>
+        <v>0.1169778108596801</v>
       </c>
       <c r="D147">
-        <v>0.1152084469795227</v>
+        <v>0.1162110343575477</v>
       </c>
       <c r="E147">
-        <v>0.115453116595745</v>
+        <v>0.1162534356117248</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>210716</v>
       </c>
       <c r="G147">
-        <v>0.1151647232371043</v>
+        <v>0.1145822650500731</v>
       </c>
       <c r="H147">
-        <v>0.1148578070104122</v>
+        <v>0.1140093624591827</v>
       </c>
       <c r="I147">
-        <v>0.1159813863535722</v>
+        <v>0.1130516909062862</v>
       </c>
       <c r="L147">
-        <v>56.15856410798229</v>
+        <v>67.0175083028884</v>
       </c>
       <c r="M147">
-        <v>49.355405706716</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14">
+        <v>62.72619071144378</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15">
       <c r="A148" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B148">
-        <v>0.1154536008834838</v>
+        <v>0.1162568628787994</v>
       </c>
       <c r="C148">
-        <v>0.1161207258701324</v>
+        <v>0.1162792742252349</v>
       </c>
       <c r="D148">
-        <v>0.11531613022089</v>
+        <v>0.1155347302556037</v>
       </c>
       <c r="E148">
-        <v>0.1160795018076896</v>
+        <v>0.1161401718854904</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>154568</v>
       </c>
       <c r="G148">
-        <v>0.1152478849253393</v>
+        <v>0.114723892944202</v>
       </c>
       <c r="H148">
-        <v>0.1147257883101701</v>
+        <v>0.1142293222248554</v>
       </c>
       <c r="I148">
-        <v>0.1159048949678739</v>
+        <v>0.1131336376070976</v>
       </c>
       <c r="L148">
-        <v>61.60097286867351</v>
+        <v>65.22305914254471</v>
       </c>
       <c r="M148">
-        <v>52.9898066547109</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14">
+        <v>61.79351833402405</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15">
       <c r="A149" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B149">
-        <v>0.1160792857408523</v>
+        <v>0.116132915019989</v>
       </c>
       <c r="C149">
-        <v>0.1161048933863639</v>
+        <v>0.1165336892008781</v>
       </c>
       <c r="D149">
-        <v>0.1154431626200676</v>
+        <v>0.1155629083514213</v>
       </c>
       <c r="E149">
-        <v>0.1160127073526382</v>
+        <v>0.1155740991234779</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>161284</v>
       </c>
       <c r="G149">
-        <v>0.1153174142369119</v>
+        <v>0.1148011844150452</v>
       </c>
       <c r="H149">
-        <v>0.1146600037813186</v>
+        <v>0.1143759611994028</v>
       </c>
       <c r="I149">
-        <v>0.1158134592076142</v>
+        <v>0.1132336219151815</v>
       </c>
       <c r="L149">
-        <v>60.69706223356191</v>
+        <v>56.68865900757782</v>
       </c>
       <c r="M149">
-        <v>52.55668360955945</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14">
+        <v>57.21469503294487</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15">
       <c r="A150" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B150">
-        <v>0.1160185858607292</v>
+        <v>0.1155628785490989</v>
       </c>
       <c r="C150">
-        <v>0.1166044175624847</v>
+        <v>0.1160565838217735</v>
       </c>
       <c r="D150">
-        <v>0.1160185858607292</v>
+        <v>0.1153491735458374</v>
       </c>
       <c r="E150">
-        <v>0.1160589531064033</v>
+        <v>0.1153491735458374</v>
       </c>
       <c r="F150">
-        <v>281708</v>
+        <v>2865048</v>
       </c>
       <c r="G150">
-        <v>0.1153848268614111</v>
+        <v>0.1148510016087536</v>
       </c>
       <c r="H150">
-        <v>0.1145734254270791</v>
+        <v>0.1145624238997698</v>
       </c>
       <c r="I150">
-        <v>0.115736465404431</v>
+        <v>0.113471869379282</v>
       </c>
       <c r="L150">
-        <v>61.14119350861887</v>
+        <v>53.55609571836006</v>
       </c>
       <c r="M150">
-        <v>52.84407342572679</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14">
+        <v>55.45631305787126</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15">
       <c r="A151" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B151">
-        <v>0.1160359978675842</v>
+        <v>0.1153482049703598</v>
       </c>
       <c r="C151">
-        <v>0.1165993511676788</v>
+        <v>0.1154135763645172</v>
       </c>
       <c r="D151">
-        <v>0.115940049290657</v>
+        <v>0.1142771989107132</v>
       </c>
       <c r="E151">
-        <v>0.1163091361522674</v>
+        <v>0.1145255342125892</v>
       </c>
       <c r="F151">
-        <v>651368</v>
+        <v>3151180</v>
       </c>
       <c r="G151">
-        <v>0.1154688549787617</v>
+        <v>0.1148214136636478</v>
       </c>
       <c r="H151">
-        <v>0.1145583678036927</v>
+        <v>0.1146949749439955</v>
       </c>
       <c r="I151">
-        <v>0.115675817678372</v>
+        <v>0.1136442760626475</v>
       </c>
       <c r="J151">
-        <v>0.1217301924029986</v>
+        <v>0.1169527665774027</v>
       </c>
       <c r="L151">
-        <v>63.64170248306608</v>
+        <v>43.62513599527062</v>
       </c>
       <c r="M151">
-        <v>54.45153563314152</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14">
+        <v>49.46174386788229</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15">
       <c r="A152" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B152">
-        <v>0.1163145825266838</v>
+        <v>0.1145137324929237</v>
       </c>
       <c r="C152">
-        <v>0.116385817527771</v>
+        <v>0.1147727966308593</v>
       </c>
       <c r="D152">
-        <v>0.1155007928609848</v>
+        <v>0.113091193139553</v>
       </c>
       <c r="E152">
-        <v>0.1155170947313308</v>
+        <v>0.1134423539042472</v>
       </c>
       <c r="F152">
-        <v>1170832</v>
+        <v>3883036</v>
       </c>
       <c r="G152">
-        <v>0.1154732404108134</v>
+        <v>0.1146960445946113</v>
       </c>
       <c r="H152">
-        <v>0.1145030800253152</v>
+        <v>0.114759212732315</v>
       </c>
       <c r="I152">
-        <v>0.1155748421947161</v>
+        <v>0.113772527873516</v>
       </c>
       <c r="J152">
-        <v>0.1216478997186056</v>
+        <v>0.1169062710453079</v>
       </c>
       <c r="L152">
-        <v>51.77563230421283</v>
+        <v>34.2333546837821</v>
       </c>
       <c r="M152">
-        <v>48.78210171263009</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14">
+        <v>42.89484341994969</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15">
       <c r="A153" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B153">
-        <v>0.1155272424221038</v>
+        <v>0.1134418174624443</v>
       </c>
       <c r="C153">
-        <v>0.1159515008330345</v>
+        <v>0.1140143424272537</v>
       </c>
       <c r="D153">
-        <v>0.1143751740455627</v>
+        <v>0.1130967140197753</v>
       </c>
       <c r="E153">
-        <v>0.1146029904484748</v>
+        <v>0.113756775856018</v>
       </c>
       <c r="F153">
-        <v>5088552</v>
+        <v>1665716</v>
       </c>
       <c r="G153">
-        <v>0.1153941267778736</v>
+        <v>0.1146106565274665</v>
       </c>
       <c r="H153">
-        <v>0.114563151448965</v>
+        <v>0.114854572340846</v>
       </c>
       <c r="I153">
-        <v>0.1154387906193733</v>
+        <v>0.1138449726005395</v>
       </c>
       <c r="J153">
-        <v>0.1215545896620476</v>
+        <v>0.1168645558772379</v>
       </c>
       <c r="L153">
-        <v>41.68449641070494</v>
+        <v>38.55326392044636</v>
       </c>
       <c r="M153">
-        <v>43.19261877586447</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14">
+        <v>45.17047664171999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15">
       <c r="A154" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B154">
-        <v>0.1146120056509971</v>
+        <v>0.1137530207633972</v>
       </c>
       <c r="C154">
-        <v>0.1146608889102935</v>
+        <v>0.1144690886139869</v>
       </c>
       <c r="D154">
-        <v>0.1139665767550468</v>
+        <v>0.1132908537983894</v>
       </c>
       <c r="E154">
-        <v>0.1140619292855262</v>
+        <v>0.1143218874931335</v>
       </c>
       <c r="F154">
-        <v>3725548</v>
+        <v>1503640</v>
       </c>
       <c r="G154">
-        <v>0.1152730179149329</v>
+        <v>0.1145844047970726</v>
       </c>
       <c r="H154">
-        <v>0.1145573940128088</v>
+        <v>0.1150053650140762</v>
       </c>
       <c r="I154">
-        <v>0.1153272432585557</v>
+        <v>0.1139602184295654</v>
       </c>
       <c r="J154">
-        <v>0.1214553491272592</v>
+        <v>0.1168308781502961</v>
       </c>
       <c r="L154">
-        <v>36.89602046466982</v>
+        <v>45.75742104439605</v>
       </c>
       <c r="M154">
-        <v>40.25266143352133</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14">
+        <v>49.09673314452047</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15">
       <c r="A155" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B155">
-        <v>0.1140597760677337</v>
+        <v>0.1143224909901619</v>
       </c>
       <c r="C155">
-        <v>0.1140828281641006</v>
+        <v>0.1144935488700866</v>
       </c>
       <c r="D155">
-        <v>0.1132581979036331</v>
+        <v>0.1140453442931175</v>
       </c>
       <c r="E155">
-        <v>0.113732673227787</v>
+        <v>0.114200547337532</v>
       </c>
       <c r="F155">
-        <v>3673712</v>
+        <v>420724</v>
       </c>
       <c r="G155">
-        <v>0.1151329865797378</v>
+        <v>0.1145495086643871</v>
       </c>
       <c r="H155">
-        <v>0.1145739797502756</v>
+        <v>0.1151266261935234</v>
       </c>
       <c r="I155">
-        <v>0.1151989308496316</v>
+        <v>0.1140345898767312</v>
       </c>
       <c r="J155">
-        <v>0.121353062029253</v>
+        <v>0.116796039331584</v>
       </c>
       <c r="L155">
-        <v>34.20594605993941</v>
+        <v>44.4972193783007</v>
       </c>
       <c r="M155">
-        <v>38.53378272240089</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14">
+        <v>48.29701043745545</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15">
       <c r="A156" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B156">
-        <v>0.1137131229043006</v>
+        <v>0.1142034158110618</v>
       </c>
       <c r="C156">
-        <v>0.1143246218562126</v>
+        <v>0.1150193661451339</v>
       </c>
       <c r="D156">
-        <v>0.1127964779734611</v>
+        <v>0.1139272898435592</v>
       </c>
       <c r="E156">
-        <v>0.1136194169521331</v>
+        <v>0.1149167865514755</v>
       </c>
       <c r="F156">
-        <v>3809304</v>
+        <v>1321204</v>
       </c>
       <c r="G156">
-        <v>0.1149953893408646</v>
+        <v>0.1145828975632133</v>
       </c>
       <c r="H156">
-        <v>0.1145530898123979</v>
+        <v>0.1152194153517484</v>
       </c>
       <c r="I156">
-        <v>0.1150680648783842</v>
+        <v>0.1141315882404645</v>
       </c>
       <c r="J156">
-        <v>0.1212506296441256</v>
+        <v>0.1167711485662845</v>
       </c>
       <c r="L156">
-        <v>33.26733892097506</v>
+        <v>53.07857288412269</v>
       </c>
       <c r="M156">
-        <v>37.9337300597752</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14">
+        <v>53.1482313596736</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15">
       <c r="A157" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B157">
-        <v>0.1136455535888671</v>
+        <v>0.1149120405316352</v>
       </c>
       <c r="C157">
-        <v>0.1142715737223625</v>
+        <v>0.115088514983654</v>
       </c>
       <c r="D157">
-        <v>0.1121360510587692</v>
+        <v>0.1139600798487663</v>
       </c>
       <c r="E157">
-        <v>0.1127212941646575</v>
+        <v>0.1150354146957397</v>
       </c>
       <c r="F157">
-        <v>7664860</v>
+        <v>736076</v>
       </c>
       <c r="G157">
-        <v>0.1147886534157549</v>
+        <v>0.114624035484352</v>
       </c>
       <c r="H157">
-        <v>0.1144647680222987</v>
+        <v>0.1153241541236639</v>
       </c>
       <c r="I157">
-        <v>0.1148623945812384</v>
+        <v>0.1142483331263065</v>
       </c>
       <c r="J157">
-        <v>0.1211376583132717</v>
+        <v>0.1167481587136945</v>
       </c>
       <c r="L157">
-        <v>26.725086119018</v>
+        <v>54.39246532161502</v>
       </c>
       <c r="M157">
-        <v>33.48119999222286</v>
-      </c>
-      <c r="N157" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14">
+        <v>53.91943228721529</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15">
       <c r="A158" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B158">
-        <v>0.1127596199512481</v>
+        <v>0.1150762513279914</v>
       </c>
       <c r="C158">
-        <v>0.113912358880043</v>
+        <v>0.1162401288747787</v>
       </c>
       <c r="D158">
-        <v>0.1124998852610588</v>
+        <v>0.1147254705429077</v>
       </c>
       <c r="E158">
-        <v>0.1125305220484733</v>
+        <v>0.1157495528459549</v>
       </c>
       <c r="F158">
-        <v>2692080</v>
+        <v>4079444</v>
       </c>
       <c r="G158">
-        <v>0.114583368746002</v>
+        <v>0.1147263552444978</v>
       </c>
       <c r="H158">
-        <v>0.1144750874489545</v>
+        <v>0.1153633434325456</v>
       </c>
       <c r="I158">
-        <v>0.1146560827891031</v>
+        <v>0.1143819523354371</v>
       </c>
       <c r="J158">
-        <v>0.1210236565084399</v>
+        <v>0.1167349321459099</v>
       </c>
       <c r="L158">
-        <v>25.52554276536298</v>
+        <v>61.66282261967973</v>
       </c>
       <c r="M158">
-        <v>32.60573424084264</v>
-      </c>
-      <c r="N158" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="159" spans="1:14">
+        <v>58.36270751563351</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15">
       <c r="A159" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B159">
-        <v>0.1125375553965568</v>
+        <v>0.1157459542155265</v>
       </c>
       <c r="C159">
-        <v>0.1141265779733657</v>
+        <v>0.1164469569921493</v>
       </c>
       <c r="D159">
-        <v>0.1125375553965568</v>
+        <v>0.1156729683279991</v>
       </c>
       <c r="E159">
-        <v>0.1136817708611488</v>
+        <v>0.1164469569921493</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>742940</v>
       </c>
       <c r="G159">
-        <v>0.1145014053019244</v>
+        <v>0.1148827735851933</v>
       </c>
       <c r="H159">
-        <v>0.1145134136080741</v>
+        <v>0.1154184151440858</v>
       </c>
       <c r="I159">
-        <v>0.1145345285534858</v>
+        <v>0.1145088069140911</v>
       </c>
       <c r="J159">
-        <v>0.1209264129899328</v>
+        <v>0.1167311179054628</v>
       </c>
       <c r="L159">
-        <v>42.91928594040508</v>
+        <v>67.37637470713676</v>
       </c>
       <c r="M159">
-        <v>42.39475318685778</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14">
+        <v>62.19630586406073</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15">
       <c r="A160" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B160">
-        <v>0.1136760339140892</v>
+        <v>0.1164459735155105</v>
       </c>
       <c r="C160">
-        <v>0.1140120103955268</v>
+        <v>0.1168262287974357</v>
       </c>
       <c r="D160">
-        <v>0.1125526577234268</v>
+        <v>0.1159875690937042</v>
       </c>
       <c r="E160">
-        <v>0.1125745698809623</v>
+        <v>0.1160607933998107</v>
       </c>
       <c r="F160">
-        <v>1948840</v>
+        <v>797604</v>
       </c>
       <c r="G160">
-        <v>0.1143262384454733</v>
+        <v>0.1149898662956131</v>
       </c>
       <c r="H160">
-        <v>0.1144469019025564</v>
+        <v>0.115438162535429</v>
       </c>
       <c r="I160">
-        <v>0.1143606635431448</v>
+        <v>0.1146568360428015</v>
       </c>
       <c r="J160">
-        <v>0.1208157925514034</v>
+        <v>0.1167222394351892</v>
       </c>
       <c r="L160">
-        <v>34.26157918430401</v>
+        <v>61.65266940253811</v>
       </c>
       <c r="M160">
-        <v>36.8509604632635</v>
+        <v>58.95926859454997</v>
       </c>
     </row>
     <row r="161" spans="1:14">
@@ -6405,40 +6402,37 @@
         <v>173</v>
       </c>
       <c r="B161">
-        <v>0.1125967428088188</v>
+        <v>0.1160626411437988</v>
       </c>
       <c r="C161">
-        <v>0.1128187775611877</v>
+        <v>0.1163630858063697</v>
       </c>
       <c r="D161">
-        <v>0.1080700978636741</v>
+        <v>0.1155184134840965</v>
       </c>
       <c r="E161">
-        <v>0.1082017496228218</v>
+        <v>0.1161321327090263</v>
       </c>
       <c r="F161">
-        <v>9868352</v>
+        <v>2789356</v>
       </c>
       <c r="G161">
-        <v>0.1137694667343232</v>
+        <v>0.1150937086968325</v>
       </c>
       <c r="H161">
-        <v>0.1141625117510557</v>
+        <v>0.1154558751732111</v>
       </c>
       <c r="I161">
-        <v>0.1140803789099057</v>
+        <v>0.1147987566888332</v>
       </c>
       <c r="J161">
-        <v>0.1206487191351308</v>
+        <v>0.1167144234520612</v>
       </c>
       <c r="L161">
-        <v>18.06789570979822</v>
+        <v>62.31796412867243</v>
       </c>
       <c r="M161">
-        <v>23.68040977122094</v>
-      </c>
-      <c r="N161" t="s">
-        <v>195</v>
+        <v>59.37986612330404</v>
       </c>
     </row>
     <row r="162" spans="1:14">
@@ -6446,40 +6440,37 @@
         <v>174</v>
       </c>
       <c r="B162">
-        <v>0.1082384064793586</v>
+        <v>0.1161260083317756</v>
       </c>
       <c r="C162">
-        <v>0.1096987724304199</v>
+        <v>0.1163207069039344</v>
       </c>
       <c r="D162">
-        <v>0.1071236655116081</v>
+        <v>0.1155056729912757</v>
       </c>
       <c r="E162">
-        <v>0.1093533337116241</v>
+        <v>0.1162741407752037</v>
       </c>
       <c r="F162">
-        <v>6348584</v>
+        <v>2594988</v>
       </c>
       <c r="G162">
-        <v>0.113368000095896</v>
+        <v>0.1152010207039571</v>
       </c>
       <c r="H162">
-        <v>0.1139282144606113</v>
+        <v>0.115447661280632</v>
       </c>
       <c r="I162">
-        <v>0.1138380616903305</v>
+        <v>0.1149359747767448</v>
       </c>
       <c r="J162">
-        <v>0.1204991113811771</v>
+        <v>0.1167085918934274</v>
       </c>
       <c r="L162">
-        <v>28.13170022231512</v>
+        <v>63.72724051650828</v>
       </c>
       <c r="M162">
-        <v>30.70433533039317</v>
-      </c>
-      <c r="N162" t="s">
-        <v>195</v>
+        <v>60.25308644086424</v>
       </c>
     </row>
     <row r="163" spans="1:14">
@@ -6487,37 +6478,37 @@
         <v>175</v>
       </c>
       <c r="B163">
-        <v>0.1093480885028839</v>
+        <v>0.1162669360637664</v>
       </c>
       <c r="C163">
-        <v>0.1099613085389137</v>
+        <v>0.1164212375879287</v>
       </c>
       <c r="D163">
-        <v>0.1085845157504081</v>
+        <v>0.1145753189921379</v>
       </c>
       <c r="E163">
-        <v>0.1095947995781898</v>
+        <v>0.1149301975965499</v>
       </c>
       <c r="F163">
-        <v>1562744</v>
+        <v>3991484</v>
       </c>
       <c r="G163">
-        <v>0.1130249818670136</v>
+        <v>0.1151764004214656</v>
       </c>
       <c r="H163">
-        <v>0.1137046616524457</v>
+        <v>0.1153952617198228</v>
       </c>
       <c r="I163">
-        <v>0.1137111696104208</v>
+        <v>0.1150386619071165</v>
       </c>
       <c r="J163">
-        <v>0.1203546834102766</v>
+        <v>0.116685037002078</v>
       </c>
       <c r="L163">
-        <v>30.15543372927663</v>
+        <v>45.57862641944223</v>
       </c>
       <c r="M163">
-        <v>32.11512308287986</v>
+        <v>49.42438596082356</v>
       </c>
     </row>
     <row r="164" spans="1:14">
@@ -6525,37 +6516,37 @@
         <v>176</v>
       </c>
       <c r="B164">
-        <v>0.1095934212207794</v>
+        <v>0.1149449273943901</v>
       </c>
       <c r="C164">
-        <v>0.1115874350070953</v>
+        <v>0.1151251941919326</v>
       </c>
       <c r="D164">
-        <v>0.1091353744268417</v>
+        <v>0.1136941313743591</v>
       </c>
       <c r="E164">
-        <v>0.1115834340453147</v>
+        <v>0.1138918623328208</v>
       </c>
       <c r="F164">
-        <v>695768</v>
+        <v>1611380</v>
       </c>
       <c r="G164">
-        <v>0.112893932065041</v>
+        <v>0.1150596242315888</v>
       </c>
       <c r="H164">
-        <v>0.1135724686086177</v>
+        <v>0.1152726255357265</v>
       </c>
       <c r="I164">
-        <v>0.1136247148116429</v>
+        <v>0.1151248561839262</v>
       </c>
       <c r="J164">
-        <v>0.1202385079219989</v>
+        <v>0.1166480413110945</v>
       </c>
       <c r="L164">
-        <v>44.60720205822858</v>
+        <v>36.53509899230076</v>
       </c>
       <c r="M164">
-        <v>42.49809636210477</v>
+        <v>42.99516898273765</v>
       </c>
     </row>
     <row r="165" spans="1:14">
@@ -6563,37 +6554,40 @@
         <v>177</v>
       </c>
       <c r="B165">
-        <v>0.1115710958838462</v>
+        <v>0.1138894259929657</v>
       </c>
       <c r="C165">
-        <v>0.111713595688343</v>
+        <v>0.1139505207538604</v>
       </c>
       <c r="D165">
-        <v>0.1106089055538177</v>
+        <v>0.1126499399542808</v>
       </c>
       <c r="E165">
-        <v>0.1108645126223564</v>
+        <v>0.1127180531620979</v>
       </c>
       <c r="F165">
-        <v>1434480</v>
+        <v>3303896</v>
       </c>
       <c r="G165">
-        <v>0.1127094393884333</v>
+        <v>0.1148467541343623</v>
       </c>
       <c r="H165">
-        <v>0.1133958633989095</v>
+        <v>0.1151088345795869</v>
       </c>
       <c r="I165">
-        <v>0.1135401666164398</v>
+        <v>0.1151562804977099</v>
       </c>
       <c r="J165">
-        <v>0.120114349043858</v>
+        <v>0.116595988487929</v>
       </c>
       <c r="L165">
-        <v>41.14476462985426</v>
+        <v>29.17342659761043</v>
       </c>
       <c r="M165">
-        <v>40.10968515348264</v>
+        <v>37.11709138983206</v>
+      </c>
+      <c r="N165" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="166" spans="1:14">
@@ -6601,37 +6595,37 @@
         <v>178</v>
       </c>
       <c r="B166">
-        <v>0.1108702272176742</v>
+        <v>0.1127498522400856</v>
       </c>
       <c r="C166">
-        <v>0.1122538149356842</v>
+        <v>0.1132205352187156</v>
       </c>
       <c r="D166">
-        <v>0.1108702272176742</v>
+        <v>0.1115383729338646</v>
       </c>
       <c r="E166">
-        <v>0.1119694039225578</v>
+        <v>0.1132186874747276</v>
       </c>
       <c r="F166">
-        <v>869144</v>
+        <v>4401208</v>
       </c>
       <c r="G166">
-        <v>0.1126421634369901</v>
+        <v>0.1146987480743955</v>
       </c>
       <c r="H166">
-        <v>0.1132261455059051</v>
+        <v>0.1149469278752803</v>
       </c>
       <c r="I166">
-        <v>0.1134712395568688</v>
+        <v>0.1151615366339683</v>
       </c>
       <c r="J166">
-        <v>0.1200064689760262</v>
+        <v>0.1165512560241779</v>
       </c>
       <c r="L166">
-        <v>48.10880491078745</v>
+        <v>35.41735169528261</v>
       </c>
       <c r="M166">
-        <v>45.20642077257529</v>
+        <v>40.83250070774701</v>
       </c>
     </row>
     <row r="167" spans="1:14">
@@ -6639,37 +6633,37 @@
         <v>179</v>
       </c>
       <c r="B167">
-        <v>0.1119723543524742</v>
+        <v>0.1132137477397918</v>
       </c>
       <c r="C167">
-        <v>0.1122501865029335</v>
+        <v>0.1135863363742828</v>
       </c>
       <c r="D167">
-        <v>0.111440397799015</v>
+        <v>0.113022081553936</v>
       </c>
       <c r="E167">
-        <v>0.1120068356394767</v>
+        <v>0.1130824834108352</v>
       </c>
       <c r="F167">
-        <v>1494032</v>
+        <v>330712</v>
       </c>
       <c r="G167">
-        <v>0.1125844063644888</v>
+        <v>0.1145518149231628</v>
       </c>
       <c r="H167">
-        <v>0.1130538314580917</v>
+        <v>0.1147883802652359</v>
       </c>
       <c r="I167">
-        <v>0.1133885430792967</v>
+        <v>0.1151662647724151</v>
       </c>
       <c r="J167">
-        <v>0.1199005135675951</v>
+        <v>0.1165053120160542</v>
       </c>
       <c r="L167">
-        <v>48.34176870041745</v>
+        <v>34.48680871400428</v>
       </c>
       <c r="M167">
-        <v>45.37601994471992</v>
+        <v>40.13766789928759</v>
       </c>
     </row>
     <row r="168" spans="1:14">
@@ -6677,37 +6671,40 @@
         <v>180</v>
       </c>
       <c r="B168">
-        <v>0.1120068430900573</v>
+        <v>0.1130754053592681</v>
       </c>
       <c r="C168">
-        <v>0.1122603639960289</v>
+        <v>0.1130754053592681</v>
       </c>
       <c r="D168">
-        <v>0.1110441833734512</v>
+        <v>0.1103633120656013</v>
       </c>
       <c r="E168">
-        <v>0.1115330681204795</v>
+        <v>0.1113327890634536</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>982112</v>
       </c>
       <c r="G168">
-        <v>0.112488830160488</v>
+        <v>0.1142591762086437</v>
       </c>
       <c r="H168">
-        <v>0.1128265097737312</v>
+        <v>0.114548011124134</v>
       </c>
       <c r="I168">
-        <v>0.1133621742328007</v>
+        <v>0.1150451655189196</v>
       </c>
       <c r="J168">
-        <v>0.1197896864755803</v>
+        <v>0.1164368017782714</v>
       </c>
       <c r="L168">
-        <v>45.43718293660981</v>
+        <v>24.99580525629703</v>
       </c>
       <c r="M168">
-        <v>43.53912640514671</v>
+        <v>32.48926109601661</v>
+      </c>
+      <c r="N168" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="169" spans="1:14">
@@ -6715,37 +6712,40 @@
         <v>181</v>
       </c>
       <c r="B169">
-        <v>0.1115326955914497</v>
+        <v>0.1113446131348609</v>
       </c>
       <c r="C169">
-        <v>0.1121337935328483</v>
+        <v>0.1114184111356735</v>
       </c>
       <c r="D169">
-        <v>0.1110698878765106</v>
+        <v>0.1091223508119583</v>
       </c>
       <c r="E169">
-        <v>0.1117409765720367</v>
+        <v>0.1112026274204254</v>
       </c>
       <c r="F169">
-        <v>28808</v>
+        <v>12487408</v>
       </c>
       <c r="G169">
-        <v>0.1124208434706288</v>
+        <v>0.1139813081369875</v>
       </c>
       <c r="H169">
-        <v>0.1126129232347011</v>
+        <v>0.1143294375389814</v>
       </c>
       <c r="I169">
-        <v>0.1133230318625767</v>
+        <v>0.1149070690075556</v>
       </c>
       <c r="J169">
-        <v>0.1196830810463943</v>
+        <v>0.1163674749655847</v>
       </c>
       <c r="L169">
-        <v>47.00907440760215</v>
+        <v>24.433061902568</v>
       </c>
       <c r="M169">
-        <v>44.59903032309725</v>
+        <v>32.00073882669954</v>
+      </c>
+      <c r="N169" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="170" spans="1:14">
@@ -6753,37 +6753,40 @@
         <v>182</v>
       </c>
       <c r="B170">
-        <v>0.1117515191435813</v>
+        <v>0.1112192720174789</v>
       </c>
       <c r="C170">
-        <v>0.1126887649297714</v>
+        <v>0.1115760281682014</v>
       </c>
       <c r="D170">
-        <v>0.1115313917398452</v>
+        <v>0.1104832366108894</v>
       </c>
       <c r="E170">
-        <v>0.1126413196325302</v>
+        <v>0.1108506545424461</v>
       </c>
       <c r="F170">
         <v>0</v>
       </c>
       <c r="G170">
-        <v>0.1124408867580744</v>
+        <v>0.1136967032647565</v>
       </c>
       <c r="H170">
-        <v>0.1124420415610075</v>
+        <v>0.1141045115888118</v>
       </c>
       <c r="I170">
-        <v>0.1132809157172838</v>
+        <v>0.1147465626398722</v>
       </c>
       <c r="J170">
-        <v>0.1195898126832968</v>
+        <v>0.1162944044964041</v>
       </c>
       <c r="L170">
-        <v>53.53102185801935</v>
+        <v>22.86692504649871</v>
       </c>
       <c r="M170">
-        <v>49.05876417513962</v>
+        <v>30.65827347383313</v>
+      </c>
+      <c r="N170" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="171" spans="1:14">
@@ -6791,37 +6794,40 @@
         <v>183</v>
       </c>
       <c r="B171">
-        <v>0.1126397028565406</v>
+        <v>0.1108490452170372</v>
       </c>
       <c r="C171">
-        <v>0.1126397028565406</v>
+        <v>0.1109795272350311</v>
       </c>
       <c r="D171">
-        <v>0.1114682480692863</v>
+        <v>0.1091551557183265</v>
       </c>
       <c r="E171">
-        <v>0.1116199195384979</v>
+        <v>0.1099018603563308</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>1240800</v>
       </c>
       <c r="G171">
-        <v>0.1123662533744765</v>
+        <v>0.1133517175458087</v>
       </c>
       <c r="H171">
-        <v>0.112207580730319</v>
+        <v>0.1138733278959989</v>
       </c>
       <c r="I171">
-        <v>0.1132052612801392</v>
+        <v>0.1145506953199704</v>
       </c>
       <c r="J171">
-        <v>0.1194842511846902</v>
+        <v>0.1162097350375952</v>
       </c>
       <c r="L171">
-        <v>46.26395810463882</v>
+        <v>19.14532358463881</v>
       </c>
       <c r="M171">
-        <v>44.6659695776433</v>
+        <v>27.3299234329975</v>
+      </c>
+      <c r="N171" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="172" spans="1:14">
@@ -6829,37 +6835,40 @@
         <v>184</v>
       </c>
       <c r="B172">
-        <v>0.1116206347942352</v>
+        <v>0.1098817512392997</v>
       </c>
       <c r="C172">
-        <v>0.1118745133280754</v>
+        <v>0.1107141450047493</v>
       </c>
       <c r="D172">
-        <v>0.1113892719149589</v>
+        <v>0.1082297787070274</v>
       </c>
       <c r="E172">
-        <v>0.1118745133280754</v>
+        <v>0.1090726107358932</v>
       </c>
       <c r="F172">
-        <v>329016</v>
+        <v>1430840</v>
       </c>
       <c r="G172">
-        <v>0.1123215497338946</v>
+        <v>0.1129627078358164</v>
       </c>
       <c r="H172">
-        <v>0.1120254516601562</v>
+        <v>0.1136548407375812</v>
       </c>
       <c r="I172">
-        <v>0.113133102407058</v>
+        <v>0.114305168390274</v>
       </c>
       <c r="J172">
-        <v>0.1193834599548012</v>
+        <v>0.1161152035898905</v>
       </c>
       <c r="L172">
-        <v>48.23455512447021</v>
+        <v>16.50423334775623</v>
       </c>
       <c r="M172">
-        <v>45.96475677450518</v>
+        <v>24.7961726164473</v>
+      </c>
+      <c r="N172" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="173" spans="1:14">
@@ -6867,37 +6876,40 @@
         <v>185</v>
       </c>
       <c r="B173">
-        <v>0.1118868589401245</v>
+        <v>0.1090492084622383</v>
       </c>
       <c r="C173">
-        <v>0.1124388724565506</v>
+        <v>0.1094329953193664</v>
       </c>
       <c r="D173">
-        <v>0.1116655617952346</v>
+        <v>0.1087107360363006</v>
       </c>
       <c r="E173">
-        <v>0.1121575981378555</v>
+        <v>0.1092728674411773</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>1792384</v>
       </c>
       <c r="G173">
-        <v>0.1123066450433456</v>
+        <v>0.1126272677999401</v>
       </c>
       <c r="H173">
-        <v>0.1119031820446252</v>
+        <v>0.1134306453168392</v>
       </c>
       <c r="I173">
-        <v>0.1130694938202699</v>
+        <v>0.1140816576778888</v>
       </c>
       <c r="J173">
-        <v>0.1192877531757688</v>
+        <v>0.1160245766210334</v>
       </c>
       <c r="L173">
-        <v>50.50501898054817</v>
+        <v>19.52043555786977</v>
       </c>
       <c r="M173">
-        <v>47.4419535548979</v>
+        <v>26.56670936497495</v>
+      </c>
+      <c r="N173" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="174" spans="1:14">
@@ -6905,37 +6917,40 @@
         <v>186</v>
       </c>
       <c r="B174">
-        <v>0.1121482923626899</v>
+        <v>0.1092555671930313</v>
       </c>
       <c r="C174">
-        <v>0.1123984828591346</v>
+        <v>0.1093158572912216</v>
       </c>
       <c r="D174">
-        <v>0.1112353503704071</v>
+        <v>0.1081509292125701</v>
       </c>
       <c r="E174">
-        <v>0.1118495836853981</v>
+        <v>0.1081509292125701</v>
       </c>
       <c r="F174">
-        <v>388280</v>
+        <v>376048</v>
       </c>
       <c r="G174">
-        <v>0.1122650940108049</v>
+        <v>0.112220327928361</v>
       </c>
       <c r="H174">
-        <v>0.1117925647646188</v>
+        <v>0.113122097402811</v>
       </c>
       <c r="I174">
-        <v>0.112990236779054</v>
+        <v>0.1138085357844829</v>
       </c>
       <c r="J174">
-        <v>0.1191892343745719</v>
+        <v>0.1159202899003915</v>
       </c>
       <c r="L174">
-        <v>47.93163869165174</v>
+        <v>15.90022609632468</v>
       </c>
       <c r="M174">
-        <v>45.96940594436462</v>
+        <v>23.26236414238519</v>
+      </c>
+      <c r="N174" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="175" spans="1:14">
@@ -6943,37 +6958,37 @@
         <v>187</v>
       </c>
       <c r="B175">
-        <v>0.1118567362427711</v>
+        <v>0.1081515401601791</v>
       </c>
       <c r="C175">
-        <v>0.1120176836848259</v>
+        <v>0.1096512973308563</v>
       </c>
       <c r="D175">
-        <v>0.110516183078289</v>
+        <v>0.1080695390701294</v>
       </c>
       <c r="E175">
-        <v>0.1113060340285301</v>
+        <v>0.1093358993530273</v>
       </c>
       <c r="F175">
-        <v>1874408</v>
+        <v>1166168</v>
       </c>
       <c r="G175">
-        <v>0.112177906739689</v>
+        <v>0.1119581071487852</v>
       </c>
       <c r="H175">
-        <v>0.111671232804656</v>
+        <v>0.1128788650035858</v>
       </c>
       <c r="I175">
-        <v>0.1128872173527876</v>
+        <v>0.1135866033534208</v>
       </c>
       <c r="J175">
-        <v>0.1190848211249554</v>
+        <v>0.1158330794295655</v>
       </c>
       <c r="L175">
-        <v>43.52848691229595</v>
+        <v>31.08616353147959</v>
       </c>
       <c r="M175">
-        <v>43.4088299151603</v>
+        <v>32.77309536729189</v>
       </c>
     </row>
     <row r="176" spans="1:14">
@@ -6981,274 +6996,265 @@
         <v>188</v>
       </c>
       <c r="B176">
-        <v>0.1113205030560493</v>
+        <v>0.1093251332640647</v>
       </c>
       <c r="C176">
-        <v>0.1120388433337211</v>
+        <v>0.1100540086627006</v>
       </c>
       <c r="D176">
-        <v>0.1111781895160675</v>
+        <v>0.1087444126605987</v>
       </c>
       <c r="E176">
-        <v>0.1117753237485885</v>
+        <v>0.1100186705589294</v>
       </c>
       <c r="F176">
-        <v>649108</v>
+        <v>422584</v>
       </c>
       <c r="G176">
-        <v>0.1121413082859526</v>
+        <v>0.1117817947315256</v>
       </c>
       <c r="H176">
-        <v>0.1115790281444788</v>
+        <v>0.1126339592039585</v>
       </c>
       <c r="I176">
-        <v>0.1127676027516524</v>
+        <v>0.1133719983200232</v>
       </c>
       <c r="J176">
-        <v>0.1189880065901691</v>
+        <v>0.1157560673915438</v>
       </c>
       <c r="L176">
-        <v>48.15449928336092</v>
+        <v>38.30723028375852</v>
       </c>
       <c r="M176">
-        <v>46.19542878841767</v>
-      </c>
-    </row>
-    <row r="177" spans="1:15">
+        <v>37.57400406901683</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13">
       <c r="A177" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B177">
-        <v>0.1117630749940872</v>
+        <v>0.110025368630886</v>
       </c>
       <c r="C177">
-        <v>0.1130969002842903</v>
+        <v>0.1101894006133079</v>
       </c>
       <c r="D177">
-        <v>0.111724317073822</v>
+        <v>0.1094836369156837</v>
       </c>
       <c r="E177">
-        <v>0.1130610033869743</v>
+        <v>0.1098699197173118</v>
       </c>
       <c r="F177">
-        <v>4014152</v>
+        <v>172336</v>
       </c>
       <c r="G177">
-        <v>0.1122249169315</v>
+        <v>0.1116079879120516</v>
       </c>
       <c r="H177">
-        <v>0.1115960136055946</v>
+        <v>0.1123756844550371</v>
       </c>
       <c r="I177">
-        <v>0.1126878656446933</v>
+        <v>0.1131592144568761</v>
       </c>
       <c r="J177">
-        <v>0.1189095032364844</v>
+        <v>0.1156781051706931</v>
       </c>
       <c r="L177">
-        <v>58.60562251709857</v>
+        <v>37.34805134241527</v>
       </c>
       <c r="M177">
-        <v>53.02054658824385</v>
-      </c>
-    </row>
-    <row r="178" spans="1:15">
+        <v>36.9548192054119</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13">
       <c r="A178" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B178">
-        <v>0.1130625158548355</v>
+        <v>0.1098627671599388</v>
       </c>
       <c r="C178">
-        <v>0.1136691272258758</v>
+        <v>0.1102056130766868</v>
       </c>
       <c r="D178">
-        <v>0.1128371357917785</v>
+        <v>0.1094408333301544</v>
       </c>
       <c r="E178">
-        <v>0.112940639257431</v>
+        <v>0.1095000728964805</v>
       </c>
       <c r="F178">
-        <v>362196</v>
+        <v>1967836</v>
       </c>
       <c r="G178">
-        <v>0.1122899825974937</v>
+        <v>0.1114163592742724</v>
       </c>
       <c r="H178">
-        <v>0.1116165194660425</v>
+        <v>0.1120632104575634</v>
       </c>
       <c r="I178">
-        <v>0.112583236893018</v>
+        <v>0.1129378778239091</v>
       </c>
       <c r="J178">
-        <v>0.1188304454354374</v>
+        <v>0.1155962769286505</v>
       </c>
       <c r="L178">
-        <v>57.38723887075939</v>
+        <v>34.90348064614253</v>
       </c>
       <c r="M178">
-        <v>52.35102412021298</v>
-      </c>
-    </row>
-    <row r="179" spans="1:15">
+        <v>35.39311499237721</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13">
       <c r="A179" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B179">
-        <v>0.1129461154341697</v>
+        <v>0.1094973757863044</v>
       </c>
       <c r="C179">
-        <v>0.1149657666683197</v>
+        <v>0.1102252453565597</v>
       </c>
       <c r="D179">
-        <v>0.112921692430973</v>
+        <v>0.1092965304851532</v>
       </c>
       <c r="E179">
-        <v>0.1149657666683197</v>
+        <v>0.1101580262184143</v>
       </c>
       <c r="F179">
-        <v>1544668</v>
+        <v>755468</v>
       </c>
       <c r="G179">
-        <v>0.1125332356948416</v>
+        <v>0.1113019653601035</v>
       </c>
       <c r="H179">
-        <v>0.111680719256401</v>
+        <v>0.1117487639188766</v>
       </c>
       <c r="I179">
-        <v>0.1125483388702074</v>
+        <v>0.1127573420604069</v>
       </c>
       <c r="J179">
-        <v>0.1187792576371974</v>
+        <v>0.1155242471179189</v>
       </c>
       <c r="L179">
-        <v>69.42049227547733</v>
+        <v>42.44322809768322</v>
       </c>
       <c r="M179">
-        <v>61.22324547518243</v>
-      </c>
-    </row>
-    <row r="180" spans="1:15">
+        <v>40.23209276031873</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13">
       <c r="A180" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B180">
-        <v>0.114969365298748</v>
+        <v>0.110160693526268</v>
       </c>
       <c r="C180">
-        <v>0.1154517233371734</v>
+        <v>0.1102703735232353</v>
       </c>
       <c r="D180">
-        <v>0.1145093888044357</v>
+        <v>0.1097263097763061</v>
       </c>
       <c r="E180">
-        <v>0.1153455227613449</v>
+        <v>0.1099896132946014</v>
       </c>
       <c r="F180">
-        <v>609012</v>
+        <v>1399136</v>
       </c>
       <c r="G180">
-        <v>0.1127888981554328</v>
+        <v>0.111182660626876</v>
       </c>
       <c r="H180">
-        <v>0.1118192669004201</v>
+        <v>0.1114452049136161</v>
       </c>
       <c r="I180">
-        <v>0.1125245578587055</v>
+        <v>0.1125786900520324</v>
       </c>
       <c r="J180">
-        <v>0.1187337777050669</v>
+        <v>0.1154509407096631</v>
       </c>
       <c r="L180">
-        <v>71.13977769453723</v>
+        <v>41.07331920223521</v>
       </c>
       <c r="M180">
-        <v>62.62850441929442</v>
-      </c>
-      <c r="O180" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="181" spans="1:15">
+        <v>39.41825610524505</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13">
       <c r="A181" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B181">
-        <v>0.1153480112552642</v>
+        <v>0.1099895536899566</v>
       </c>
       <c r="C181">
-        <v>0.1163671091198921</v>
+        <v>0.110199399292469</v>
       </c>
       <c r="D181">
-        <v>0.1148447170853614</v>
+        <v>0.1090268492698669</v>
       </c>
       <c r="E181">
-        <v>0.1156658455729484</v>
+        <v>0.1097384616732597</v>
       </c>
       <c r="F181">
-        <v>5115996</v>
+        <v>2102892</v>
       </c>
       <c r="G181">
-        <v>0.1130504388297524</v>
+        <v>0.1110513698129109</v>
       </c>
       <c r="H181">
-        <v>0.1121924716979265</v>
+        <v>0.1111255213618278</v>
       </c>
       <c r="I181">
-        <v>0.1125031148393948</v>
+        <v>0.1124191209673881</v>
       </c>
       <c r="J181">
-        <v>0.1186931428423899</v>
+        <v>0.115375278735671</v>
       </c>
       <c r="L181">
-        <v>72.60154806573362</v>
+        <v>38.96345809901364</v>
       </c>
       <c r="M181">
-        <v>63.81954544232995</v>
-      </c>
-      <c r="O181" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="182" spans="1:15">
+        <v>38.1779677032006</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13">
       <c r="A182" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B182">
-        <v>0.1156718805432319</v>
+        <v>0.1097436398267746</v>
       </c>
       <c r="C182">
-        <v>0.1158598586916923</v>
+        <v>0.1099483221769332</v>
       </c>
       <c r="D182">
-        <v>0.11536405980587</v>
+        <v>0.1097436398267746</v>
       </c>
       <c r="E182">
-        <v>0.1156468540430069</v>
+        <v>0.1098348274827003</v>
       </c>
       <c r="F182">
-        <v>593072</v>
+        <v>218184</v>
       </c>
       <c r="G182">
-        <v>0.1132864765764119</v>
+        <v>0.110940775055619</v>
       </c>
       <c r="H182">
-        <v>0.1125071477144956</v>
+        <v>0.1108035556972026</v>
       </c>
       <c r="I182">
-        <v>0.112507440149784</v>
+        <v>0.1122988700866699</v>
       </c>
       <c r="J182">
-        <v>0.1186527946463715</v>
+        <v>0.1153018952753667</v>
       </c>
       <c r="L182">
-        <v>72.35710076442297</v>
+        <v>40.28749135206413</v>
       </c>
       <c r="M182">
-        <v>63.68994279619825</v>
-      </c>
-      <c r="O182" t="s">
-        <v>195</v>
+        <v>38.97143693557055</v>
       </c>
     </row>
   </sheetData>
